--- a/document/quant_result.xlsx
+++ b/document/quant_result.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t>price</t>
   </si>
@@ -34,14 +34,6 @@
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计USDT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计BTC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -112,30 +104,6 @@
     <t>buy-limit</t>
   </si>
   <si>
-    <t>2018/5/6 24:00:000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/5/7 24:00:000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/5/8 24:00:000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/5/9 24:00:000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/5/10 24:00:000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/5/11 20:00:000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>手续费</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -199,15 +167,28 @@
     <t>订单来源</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>总资产(USDT)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略净值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资产（BTC）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="184" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,12 +211,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFC7CCE6"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -270,12 +245,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -285,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -293,6 +262,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -332,31 +307,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>BitQuant</a:t>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>BitQuant </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t> </a:t>
+              <a:rPr lang="zh-CN" sz="1800"/>
+              <a:t>业绩报告</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t>基金净值走势</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -374,15 +344,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -393,12 +363,173 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>持仓!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>总资产(USDT)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>持仓!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d;@</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>43226.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43227.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43228.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43229.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43230.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43231.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43232.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43233.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43234.250219907408</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43234.753703703704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43235.250555555554</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43236.250069444446</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43236.750115740739</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43237.349606481483</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43237.750277777777</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43238.250219907408</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43238.750162037039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持仓!$K$2:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>99970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99865.551099999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100101.48609999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99975.561099999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99879.582193599999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100679.95209025001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100482.57709025001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100732.62709025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100660.51449999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>116169.473</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120388.1306</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120227.93279999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>121369.41045</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120412.67369999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120759.56434999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>121344.27255000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>121558.23365000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1651569272"/>
+        <c:axId val="1651566920"/>
+      </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>持仓!$M$1</c:f>
@@ -406,87 +537,6 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>策略净值</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>持仓!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2018/5/6 24:00:000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2018/5/7 24:00:000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2018/5/8 24:00:000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2018/5/9 24:00:000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2018/5/10 24:00:000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018/5/11 20:00:000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>持仓!$M$2:$M$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99895519755926776</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0013152555766729</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0000556276883064</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.99909555060118038</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0071016513979194</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>持仓!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>基准净值</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -504,41 +554,223 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>持仓!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>持仓!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d;@</c:formatCode>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2018/5/6 24:00:000</c:v>
+                  <c:v>43226.999305555553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2018/5/7 24:00:000</c:v>
+                  <c:v>43227.999305555553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2018/5/8 24:00:000</c:v>
+                  <c:v>43228.999305555553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2018/5/9 24:00:000</c:v>
+                  <c:v>43229.999305555553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2018/5/10 24:00:000</c:v>
+                  <c:v>43230.999305555553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2018/5/11 20:00:000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>43231.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43232.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43233.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43234.250219907408</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43234.753703703704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43235.250555555554</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43236.250069444446</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43236.750115740739</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43237.349606481483</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43237.750277777777</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43238.250219907408</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43238.750162037039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>持仓!$N$2:$N$7</c:f>
+              <c:f>持仓!$M$2:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.99895519755926776</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0013152555766729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0000556276883064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99909555060118038</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0071016513979194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0051273090952286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0076285594703411</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0069072171651494</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0087999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0184</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0182</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>持仓!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基准净值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>持仓!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d;@</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>43226.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43227.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43228.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43229.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43230.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43231.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43232.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43233.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43234.250219907408</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43234.753703703704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43235.250555555554</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43236.250069444446</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43236.750115740739</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43237.349606481483</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43237.750277777777</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43238.250219907408</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43238.750162037039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持仓!$N$2:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.98399411239026446</c:v>
                 </c:pt>
                 <c:pt idx="2">
@@ -552,6 +784,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.89657887820007354</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9048793565683646</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89436366503706033</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90973242916469532</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8796320243915261</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91837459916942654</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91463596698733107</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.86460705461809384</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87802765073857969</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87041265836093151</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85646322872312464</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85314934552909627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -566,19 +831,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1180032432"/>
-        <c:axId val="1180033216"/>
+        <c:axId val="1656354472"/>
+        <c:axId val="1656359176"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="1180032432"/>
+      <c:dateAx>
+        <c:axId val="1656354472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="yyyy/m/d;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -599,30 +865,29 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1180033216"/>
+        <c:crossAx val="1656359176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="1180033216"/>
+        <c:axId val="1656359176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,25 +923,84 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1180032432"/>
+        <c:crossAx val="1656354472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1651566920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="80000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1651569272"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="1651569272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy/m/d;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1651566920"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -701,15 +1025,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -741,7 +1065,663 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>策略净值（以</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>BTC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>计价）</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>持仓!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>总资产（BTC）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>持仓!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d;@</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>43226.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43227.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43228.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43229.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43230.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43231.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43232.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43233.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43234.250219907408</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43234.753703703704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43235.250555555554</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43236.250069444446</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43236.750115740739</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43237.349606481483</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43237.750277777777</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43238.250219907408</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43238.750162037039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持仓!$L$2:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10.510434736897439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.670240072398885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.87826694718631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.766360371401003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.669744204268556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.806073551152055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.674843621786827</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.84150768569981</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.633126678624095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.884875015239128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.782080910164943</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.820001563297453</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.75847402814545</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.418331110142535</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.586373402118387</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.895721657204234</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.979948026613332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1651568096"/>
+        <c:axId val="1329666752"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>持仓!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>策略净值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>持仓!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d;@</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>43226.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43227.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43228.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43229.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43230.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43231.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43232.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43233.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43234.250219907408</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43234.753703703704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43235.250555555554</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43236.250069444446</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43236.750115740739</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43237.349606481483</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43237.750277777777</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43238.250219907408</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43238.750162037039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持仓!$O$2:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0152044458199658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0349968597395476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0243496716272944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0151572671691547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1232716673180232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1107859868823189</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1266429964242648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.106816889104062</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1480937164589762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0999868690985355</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1029524711594609</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1778761167404981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1507610257490994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1641604591414592</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1888426331133957</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1955702777541581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1650519328"/>
+        <c:axId val="1650520896"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1650519328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy/m/d;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1650520896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1650520896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1650519328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1329666752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1651568096"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="1651568096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy/m/d;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1329666752"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -794,6 +1774,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1310,24 +2330,540 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68037</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>299356</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1337,6 +2873,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6803</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1608,394 +3174,1002 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="22.125" style="10" customWidth="1"/>
     <col min="5" max="9" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
+        <v>43226.999305555553</v>
+      </c>
+      <c r="B2" s="5">
         <v>99970</v>
       </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
         <f>B2-D2</f>
         <v>99970</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <f>C2-E2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
         <f>D2*0.001+E2*0.001*J2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>9511.5</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <f>F2+G2*J2</f>
         <v>99970</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="5">
         <f>G2+F2/J2</f>
         <v>10.510434736897439</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="5">
         <f>K2/$K$2</f>
         <v>1</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="5">
         <f>J2/$J$2</f>
         <v>1</v>
       </c>
+      <c r="O2" s="2">
+        <f>M2*$J$2/J2</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="7">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>43227.999305555553</v>
+      </c>
+      <c r="B3" s="5">
         <f>99970+13934.4411</f>
         <v>113904.4411</v>
       </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
         <v>1.5</v>
       </c>
-      <c r="F3" s="7">
-        <f t="shared" ref="F3:F7" si="0">B3-D3</f>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F18" si="0">B3-D3</f>
         <v>113904.4411</v>
       </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G7" si="1">C3-E3</f>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G21" si="1">C3-E3</f>
         <v>-1.5</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>27.868882228</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <f t="shared" ref="I3:I7" si="2">D3*0.001+E3*0.001*J3</f>
         <v>14.03889</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <v>9359.26</v>
       </c>
-      <c r="K3" s="7">
-        <f t="shared" ref="K3:K7" si="3">F3+G3*J3</f>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:K18" si="3">F3+G3*J3</f>
         <v>99865.551099999997</v>
       </c>
-      <c r="L3" s="7">
-        <f t="shared" ref="L3:L7" si="4">G3+F3/J3</f>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L18" si="4">G3+F3/J3</f>
         <v>10.670240072398885</v>
       </c>
-      <c r="M3" s="7">
-        <f t="shared" ref="M3:M7" si="5">K3/$K$2</f>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M10" si="5">K3/$K$2</f>
         <v>0.99895519755926776</v>
       </c>
-      <c r="N3" s="7">
-        <f t="shared" ref="N3:N7" si="6">J3/$J$2</f>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N18" si="6">J3/$J$2</f>
         <v>0.98399411239026446</v>
       </c>
+      <c r="O3" s="2">
+        <f t="shared" ref="O3:O18" si="7">M3*$J$2/J3</f>
+        <v>1.0152044458199658</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="7">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>43228.999305555553</v>
+      </c>
+      <c r="B4" s="5">
         <f>99970+13934.4411</f>
         <v>113904.4411</v>
       </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
         <v>1.5</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <f t="shared" si="0"/>
         <v>113904.4411</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <f t="shared" si="1"/>
         <v>-1.5</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
         <f t="shared" si="2"/>
         <v>13.802954999999999</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <v>9201.9699999999993</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <f t="shared" si="3"/>
         <v>100101.48609999999</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <f t="shared" si="4"/>
         <v>10.87826694718631</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="5">
         <f t="shared" si="5"/>
         <v>1.0013152555766729</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="5">
         <f t="shared" si="6"/>
         <v>0.96745728854544488</v>
       </c>
+      <c r="O4" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0349968597395476</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>43229.999305555553</v>
+      </c>
+      <c r="B5" s="5">
         <f>99970+13934.4411</f>
         <v>113904.4411</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
         <v>1.5</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>113904.4411</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <f t="shared" si="1"/>
         <v>-1.5</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
         <f t="shared" si="2"/>
         <v>13.928880000000001</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <v>9285.92</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <f t="shared" si="3"/>
         <v>99975.561099999992</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
         <f t="shared" si="4"/>
         <v>10.766360371401003</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="5">
         <f t="shared" si="5"/>
         <v>1.0000556276883064</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="5">
         <f t="shared" si="6"/>
         <v>0.97628344635441311</v>
       </c>
+      <c r="O5" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0243496716272944</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="7">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>43230.999305555553</v>
+      </c>
+      <c r="B6" s="5">
         <f>113904.4411-14024.8589064</f>
         <v>99879.582193599999</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>99879.582193599999</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>28.049717812799997</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>9361.01</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <f t="shared" si="3"/>
         <v>99879.582193599999</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <f t="shared" si="4"/>
         <v>10.669744204268556</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="5">
         <f t="shared" si="5"/>
         <v>0.99909555060118038</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="5">
         <f t="shared" si="6"/>
         <v>0.98417810019450147</v>
       </c>
+      <c r="O6" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0151572671691547</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="7">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>43231.833333333336</v>
+      </c>
+      <c r="B7" s="5">
         <v>121999.47709025</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
         <v>2.5</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>121999.47709025</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>-2.5</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>44.68490036</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <f t="shared" si="2"/>
         <v>21.319524999999999</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>8527.81</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <f t="shared" si="3"/>
         <v>100679.95209025001</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
         <f t="shared" si="4"/>
         <v>11.806073551152055</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="5">
         <f t="shared" si="5"/>
         <v>1.0071016513979194</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="5">
         <f t="shared" si="6"/>
         <v>0.89657887820007354</v>
       </c>
+      <c r="O7" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1232716673180232</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>43232.833333333336</v>
+      </c>
+      <c r="B8" s="5">
+        <v>121999.47709025</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>121999.47709025</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.5</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>8606.76</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="3"/>
+        <v>100482.57709025001</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="4"/>
+        <v>11.674843621786827</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="5"/>
+        <v>1.0051273090952286</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="6"/>
+        <v>0.9048793565683646</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1107859868823189</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>43233.833333333336</v>
+      </c>
+      <c r="B9" s="5">
+        <v>121999.47709025</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>121999.47709025</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.5</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>8506.74</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="3"/>
+        <v>100732.62709025</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="4"/>
+        <v>11.84150768569981</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="5"/>
+        <v>1.0076285594703411</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="6"/>
+        <v>0.89436366503706033</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1266429964242648</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>43234.250219907408</v>
+      </c>
+      <c r="B10">
+        <v>91964.329899999997</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>91964.329899999997</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>8652.92</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="3"/>
+        <v>100660.51449999999</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="4"/>
+        <v>11.633126678624095</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="5"/>
+        <v>1.0069072171651494</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="6"/>
+        <v>0.90973242916469532</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="7"/>
+        <v>1.106816889104062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>43234.753703703704</v>
+      </c>
+      <c r="B11">
+        <v>111944.3299</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>111944.3299</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.50499999999999989</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>8366.6200000000008</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="3"/>
+        <v>116169.473</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="4"/>
+        <v>13.884875015239128</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1.0099</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="6"/>
+        <v>0.8796320243915261</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1480937164589762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
+        <v>43235.250555555554</v>
+      </c>
+      <c r="B12">
+        <v>81036.414999999994</v>
+      </c>
+      <c r="C12" s="5">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>81036.414999999994</v>
+      </c>
+      <c r="G12" s="5">
+        <f>C12-E12</f>
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>8735.1200000000008</v>
+      </c>
+      <c r="K12" s="5">
+        <f>F12+G12*J12</f>
+        <v>120388.1306</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="4"/>
+        <v>13.782080910164943</v>
+      </c>
+      <c r="M12">
+        <v>1.0102</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="6"/>
+        <v>0.91837459916942654</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0999868690985355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>43236.250069444446</v>
+      </c>
+      <c r="B13">
+        <v>81036.414999999994</v>
+      </c>
+      <c r="C13" s="5">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <f>B13-D13</f>
+        <v>81036.414999999994</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>8699.56</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="3"/>
+        <v>120227.93279999998</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="4"/>
+        <v>13.820001563297453</v>
+      </c>
+      <c r="M13">
+        <v>1.0087999999999999</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="6"/>
+        <v>0.91463596698733107</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1029524711594609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>43236.750115740739</v>
+      </c>
+      <c r="B14">
+        <v>183006.11689999999</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>183006.11689999999</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
+        <v>-7.4950000000000001</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>8223.7099999999991</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="3"/>
+        <v>121369.41045</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="4"/>
+        <v>14.75847402814545</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1.0184</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="6"/>
+        <v>0.86460705461809384</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1778761167404981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>43237.349606481483</v>
+      </c>
+      <c r="B15">
+        <v>183006.11689999999</v>
+      </c>
+      <c r="C15" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>183006.11689999999</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="1"/>
+        <v>-7.4950000000000001</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>8351.36</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="3"/>
+        <v>120412.67369999998</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="4"/>
+        <v>14.418331110142535</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1.0104</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" si="6"/>
+        <v>0.87802765073857969</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1507610257490994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>43237.750277777777</v>
+      </c>
+      <c r="B16">
+        <v>170391.74969999999</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>170391.74969999999</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
+        <v>-5.9950000000000001</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>8278.93</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="3"/>
+        <v>120759.56434999999</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="4"/>
+        <v>14.586373402118387</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1.0133000000000001</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="6"/>
+        <v>0.87041265836093151</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1641604591414592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>43238.250219907408</v>
+      </c>
+      <c r="B17">
+        <v>157961.66630000001</v>
+      </c>
+      <c r="C17" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>157961.66630000001</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="1"/>
+        <v>-4.4950000000000001</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>8146.25</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="3"/>
+        <v>121344.27255000001</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="4"/>
+        <v>14.895721657204234</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1.0182</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="6"/>
+        <v>0.85646322872312464</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1888426331133957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>43238.750162037039</v>
+      </c>
+      <c r="B18">
+        <v>158033.94500000001</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>158033.94500000001</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="1"/>
+        <v>-4.4950000000000001</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>8114.73</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="3"/>
+        <v>121558.23365000001</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="4"/>
+        <v>14.979948026613332</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="6"/>
+        <v>0.85314934552909627</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1955702777541581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G19" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G20" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G21" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2021,7 +4195,7 @@
     <col min="4" max="4" width="10.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="13.875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="5" customWidth="1"/>
     <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="13.375" customWidth="1"/>
     <col min="10" max="10" width="10.5" customWidth="1"/>
@@ -2037,64 +4211,64 @@
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="M1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
@@ -2105,7 +4279,7 @@
         <v>43231.717499999999</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2">
         <v>3417614</v>
@@ -2114,10 +4288,10 @@
         <v>4315927751</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="H2">
         <v>4379.1450000000004</v>
@@ -2132,7 +4306,7 @@
         <v>8758.2900000000009</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M2">
         <v>8758.2900000000009</v>
@@ -2144,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2164,7 +4338,7 @@
         <v>43231.345324074071</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2">
         <v>3417614</v>
@@ -2173,10 +4347,10 @@
         <v>4299229176</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="H3">
         <v>4451.42</v>
@@ -2191,7 +4365,7 @@
         <v>8902.84</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M3">
         <v>8902.84</v>
@@ -2203,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -2223,7 +4397,7 @@
         <v>43231.34784722222</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2">
         <v>3417614</v>
@@ -2232,10 +4406,10 @@
         <v>4298832449</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="H4">
         <v>4465.0450000000001</v>
@@ -2250,7 +4424,7 @@
         <v>8930.09</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M4">
         <v>8930.09</v>
@@ -2262,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2282,7 +4456,7 @@
         <v>43231.330636574072</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>3417614</v>
@@ -2291,10 +4465,10 @@
         <v>4298482307</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="H5">
         <v>4508.88</v>
@@ -2309,7 +4483,7 @@
         <v>9017.76</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M5">
         <v>9009.6299999999992</v>
@@ -2321,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2341,7 +4515,7 @@
         <v>43231.200069444443</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
         <v>3417614</v>
@@ -2350,10 +4524,10 @@
         <v>4292941336</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="H6">
         <v>4537.96018</v>
@@ -2368,7 +4542,7 @@
         <v>9075.9204000000009</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M6">
         <v>9073.5400000000009</v>
@@ -2380,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2392,62 +4566,62 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>43231.119490740741</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7">
         <v>3417614</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>4289668636</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>4570.6680900000001</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>1.0020000000000001E-3</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <v>0.501</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="3">
         <v>9123.09</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="5">
+      <c r="L7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="3">
         <v>9126.73</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="3">
         <v>1525978324104</v>
       </c>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5">
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
         <v>1525978324508</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="3">
         <v>0.501</v>
       </c>
     </row>
@@ -2459,7 +4633,7 @@
         <v>43231.053518518522</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <v>3417614</v>
@@ -2468,10 +4642,10 @@
         <v>4286636052</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="H8">
         <v>4588.1128259999996</v>
@@ -2486,7 +4660,7 @@
         <v>9176.2257000000009</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M8">
         <v>9170.86</v>
@@ -2498,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -2510,180 +4684,180 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
+    <row r="9" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>43230.80773148148</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7">
         <v>3417614</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>4276806168</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>4676.7869637452804</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <v>0.5</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>9353.5738999999994</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="3">
+        <v>9354.94</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1525951388027</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1525951388403</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>43230.666192129633</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3417614</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4271495163</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="5">
-        <v>9354.94</v>
-      </c>
-      <c r="N9" s="5">
-        <v>1525951388027</v>
-      </c>
-      <c r="O9" s="5">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5">
-        <v>1525951388403</v>
-      </c>
-      <c r="U9" s="5">
+      <c r="G10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4677.5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J10" s="3">
         <v>0.5</v>
       </c>
+      <c r="K10" s="3">
+        <v>9355</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="3">
+        <v>9355.99</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1525939157621</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1525939159429</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6">
-        <v>43230.666192129633</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="9">
+    <row r="11" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>43230.427453703705</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7">
         <v>3417614</v>
       </c>
-      <c r="E10" s="5">
-        <v>4271495163</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="E11" s="3">
+        <v>4262406576</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="5">
-        <v>4677.5</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="K10" s="5">
-        <v>9355</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="5">
-        <v>9355.99</v>
-      </c>
-      <c r="N10" s="5">
-        <v>1525939157621</v>
-      </c>
-      <c r="O10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>0</v>
-      </c>
-      <c r="S10" s="5">
-        <v>1525939159429</v>
-      </c>
-      <c r="U10" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6">
-        <v>43230.427453703705</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="9">
-        <v>3417614</v>
-      </c>
-      <c r="E11" s="5">
-        <v>4262406576</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>4670.5719760000002</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>1.0039999999999999E-3</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="3">
         <v>0.502</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="3">
         <v>9303.9282000000003</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="5">
+      <c r="L11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="3">
         <v>9330</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="3">
         <v>1525918532119</v>
       </c>
-      <c r="O11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>0</v>
-      </c>
-      <c r="S11" s="5">
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
         <v>1525918532719</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="3">
         <v>0.502</v>
       </c>
     </row>
@@ -2695,7 +4869,7 @@
         <v>43227.914965277778</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2">
         <v>3417614</v>
@@ -2704,10 +4878,10 @@
         <v>4162923860</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="H12">
         <v>13934.441113999999</v>
@@ -2722,7 +4896,7 @@
         <v>9289.6273999999994</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M12">
         <v>9289.39</v>
@@ -2734,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12">
         <v>0</v>

--- a/document/quant_result.xlsx
+++ b/document/quant_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="持仓" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
   <si>
     <t>price</t>
   </si>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>利息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>策略净值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -179,6 +175,14 @@
     <t>总资产（BTC）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>USDT利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTC利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -186,9 +190,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="184" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +215,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -235,7 +245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -263,10 +273,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -307,7 +320,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -320,11 +333,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>BitQuant </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" sz="1800"/>
+              <a:rPr lang="zh-CN" sz="1600"/>
               <a:t>业绩报告</a:t>
             </a:r>
           </a:p>
@@ -344,7 +357,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -372,7 +385,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>持仓!$K$1</c:f>
+              <c:f>持仓!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -393,10 +406,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>持仓!$A$2:$A$21</c:f>
+              <c:f>持仓!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/m/d;@</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43226.999305555553</c:v>
                 </c:pt>
@@ -447,16 +460,58 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43238.750162037039</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43239.250127314815</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43239.750092592592</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43240.250034722223</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43240.750555555554</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43241.250509259262</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43241.750451388885</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43242.250381944446</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43242.750335648147</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43243.250324074077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43243.750289351854</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43244.250219907408</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43244.750150462962</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43245.250115740739</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43245.750057870369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>持仓!$K$2:$K$21</c:f>
+              <c:f>持仓!$L$2:$L$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>99970</c:v>
                 </c:pt>
@@ -507,6 +562,48 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>121558.23365000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>121010.5007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>121167.0399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120679.17159999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120248.7447</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>120098.37880000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>119839.2444</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>119187.5049</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>118602.06909999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>118232.7237</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>118929.3198</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>119687.7179</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>120447.7885</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>120056.0101</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120410.82631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -521,170 +618,22 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1651569272"/>
-        <c:axId val="1651566920"/>
+        <c:axId val="1237404968"/>
+        <c:axId val="1237404576"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>持仓!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>策略净值</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>持仓!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy/m/d;@</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>43226.999305555553</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43227.999305555553</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43228.999305555553</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43229.999305555553</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43230.999305555553</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43231.833333333336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43232.833333333336</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43233.833333333336</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43234.250219907408</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43234.753703703704</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43235.250555555554</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43236.250069444446</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43236.750115740739</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43237.349606481483</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43237.750277777777</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43238.250219907408</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43238.750162037039</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>持仓!$M$2:$M$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99895519755926776</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0013152555766729</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0000556276883064</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.99909555060118038</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0071016513979194</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0051273090952286</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0076285594703411</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0069072171651494</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0099</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0102</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0087999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0184</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0104</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0133000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0182</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.02</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>持仓!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>基准净值</c:v>
+                  <c:v>策略净值</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -703,10 +652,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>持仓!$A$2:$A$21</c:f>
+              <c:f>持仓!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/m/d;@</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43226.999305555553</c:v>
                 </c:pt>
@@ -757,20 +706,294 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43238.750162037039</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43239.250127314815</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43239.750092592592</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43240.250034722223</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43240.750555555554</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43241.250509259262</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43241.750451388885</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43242.250381944446</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43242.750335648147</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43243.250324074077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43243.750289351854</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43244.250219907408</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43244.750150462962</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43245.250115740739</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43245.750057870369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>持仓!$N$2:$N$21</c:f>
+              <c:f>持仓!$N$2:$N$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.99895519755926776</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0013152555766729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0000556276883064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99909555060118038</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0071016513979194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0051273090952286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0076285594703411</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0069072171651494</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0087999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0184</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0182</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0154000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0166999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0123</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0077</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0056</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99519999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0043</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0106999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0074000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>持仓!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基准净值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>持仓!$A$2:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d;@</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>43226.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43227.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43228.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43229.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43230.999305555553</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43231.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43232.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43233.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43234.250219907408</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43234.753703703704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43235.250555555554</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43236.250069444446</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43236.750115740739</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43237.349606481483</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43237.750277777777</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43238.250219907408</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43238.750162037039</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43239.250127314815</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43239.750092592592</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43240.250034722223</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43240.750555555554</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43241.250509259262</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43241.750451388885</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43242.250381944446</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43242.750335648147</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43243.250324074077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43243.750289351854</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43244.250219907408</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43244.750150462962</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43245.250115740739</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43245.750057870369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持仓!$O$2:$O$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.98399411239026446</c:v>
                 </c:pt>
                 <c:pt idx="2">
@@ -817,6 +1040,48 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.85314934552909627</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8650580875781948</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.86111233769647266</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.86167271198023443</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8778941281606476</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89716763917363196</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.89054618093886351</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.88100615044945596</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86618724701676919</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.84932765599537408</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.82385638437680697</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.80358723650318031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.77529201492929611</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.78928980707564522</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.77875203700783269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,11 +1098,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1656354472"/>
-        <c:axId val="1656359176"/>
+        <c:axId val="1231531400"/>
+        <c:axId val="1231531008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1656354472"/>
+        <c:axId val="1231531400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,7 +1130,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -880,16 +1145,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1656359176"/>
+        <c:crossAx val="1231531008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1656359176"/>
+        <c:axId val="1231531008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -923,7 +1189,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -938,15 +1204,16 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1656354472"/>
+        <c:crossAx val="1231531400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1651566920"/>
+        <c:axId val="1237404576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="80000"/>
+          <c:max val="150000"/>
+          <c:min val="50000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -966,7 +1233,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -981,12 +1248,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1651569272"/>
+        <c:crossAx val="1237404968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="1651569272"/>
+        <c:axId val="1237404968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,7 +1263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1651566920"/>
+        <c:crossAx val="1237404576"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1025,7 +1292,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1065,660 +1332,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-          <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t>策略净值（以</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>BTC</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t>计价）</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>持仓!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>总资产（BTC）</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>持仓!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy/m/d;@</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>43226.999305555553</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43227.999305555553</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43228.999305555553</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43229.999305555553</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43230.999305555553</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43231.833333333336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43232.833333333336</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43233.833333333336</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43234.250219907408</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43234.753703703704</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43235.250555555554</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43236.250069444446</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43236.750115740739</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43237.349606481483</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43237.750277777777</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43238.250219907408</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43238.750162037039</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>持仓!$L$2:$L$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>10.510434736897439</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.670240072398885</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.87826694718631</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.766360371401003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.669744204268556</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.806073551152055</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.674843621786827</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.84150768569981</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.633126678624095</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.884875015239128</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.782080910164943</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.820001563297453</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.75847402814545</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.418331110142535</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.586373402118387</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14.895721657204234</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.979948026613332</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1651568096"/>
-        <c:axId val="1329666752"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>持仓!$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>策略净值</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>持仓!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy/m/d;@</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>43226.999305555553</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43227.999305555553</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43228.999305555553</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43229.999305555553</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43230.999305555553</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43231.833333333336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43232.833333333336</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43233.833333333336</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43234.250219907408</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43234.753703703704</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43235.250555555554</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43236.250069444446</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43236.750115740739</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43237.349606481483</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43237.750277777777</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43238.250219907408</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43238.750162037039</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>持仓!$O$2:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0152044458199658</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0349968597395476</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0243496716272944</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0151572671691547</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1232716673180232</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1107859868823189</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1266429964242648</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.106816889104062</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1480937164589762</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0999868690985355</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1029524711594609</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.1778761167404981</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1507610257490994</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.1641604591414592</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1888426331133957</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1955702777541581</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1650519328"/>
-        <c:axId val="1650520896"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1650519328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy/m/d;@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1650520896"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="1650520896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.9"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1650519328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1329666752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="8"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1651568096"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:dateAx>
-        <c:axId val="1651568096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy/m/d;@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1329666752"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
+        <a:defRPr sz="1200">
           <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
         </a:defRPr>
@@ -1735,46 +1349,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2330,540 +1904,24 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>68037</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161923</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>530679</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>299356</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>163284</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2873,36 +1931,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6803</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3174,19 +2202,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O18"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.125" style="10" customWidth="1"/>
-    <col min="5" max="9" width="10.75" customWidth="1"/>
+    <col min="4" max="5" width="10.75" customWidth="1"/>
+    <col min="7" max="10" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -3194,46 +2223,49 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
         <v>43226.999305555553</v>
       </c>
@@ -3244,51 +2276,54 @@
         <v>0</v>
       </c>
       <c r="D2" s="5">
+        <f>C2*0.001+G2*0.001*K2</f>
         <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>0</v>
+        <f>B2-C2</f>
+        <v>99970</v>
       </c>
       <c r="F2" s="5">
-        <f>B2-D2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <f>F2-G2-H2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>9511.5</v>
+      </c>
+      <c r="L2" s="5">
+        <f>E2+I2*K2</f>
         <v>99970</v>
       </c>
-      <c r="G2" s="5">
-        <f>C2-E2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <f>D2*0.001+E2*0.001*J2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>9511.5</v>
-      </c>
-      <c r="K2" s="5">
-        <f>F2+G2*J2</f>
-        <v>99970</v>
-      </c>
-      <c r="L2" s="5">
-        <f>G2+F2/J2</f>
+      <c r="M2" s="5">
+        <f>I2+E2/K2</f>
         <v>10.510434736897439</v>
       </c>
-      <c r="M2" s="5">
+      <c r="N2" s="5">
+        <f>L2/$L$2</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="5">
         <f>K2/$K$2</f>
         <v>1</v>
       </c>
-      <c r="N2" s="5">
-        <f>J2/$J$2</f>
+      <c r="P2" s="2">
+        <f>N2*$K$2/K2</f>
         <v>1</v>
       </c>
-      <c r="O2" s="2">
-        <f>M2*$J$2/J2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>43227.999305555553</v>
       </c>
@@ -3300,51 +2335,54 @@
         <v>0</v>
       </c>
       <c r="D3" s="5">
-        <v>0</v>
+        <f>C3*0.001+G3*0.001*K3</f>
+        <v>14.03889</v>
       </c>
       <c r="E3" s="5">
+        <f>B3-C3</f>
+        <v>113904.4411</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
         <v>1.5</v>
       </c>
-      <c r="F3" s="5">
-        <f t="shared" ref="F3:F18" si="0">B3-D3</f>
-        <v>113904.4411</v>
-      </c>
-      <c r="G3" s="5">
-        <f t="shared" ref="G3:G21" si="1">C3-E3</f>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f>F3-G3</f>
         <v>-1.5</v>
       </c>
-      <c r="H3" s="6">
+      <c r="J3" s="6">
         <v>27.868882228</v>
       </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I7" si="2">D3*0.001+E3*0.001*J3</f>
-        <v>14.03889</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>9359.26</v>
       </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K18" si="3">F3+G3*J3</f>
+      <c r="L3" s="5">
+        <f>E3+I3*K3</f>
         <v>99865.551099999997</v>
       </c>
-      <c r="L3" s="5">
-        <f t="shared" ref="L3:L18" si="4">G3+F3/J3</f>
+      <c r="M3" s="5">
+        <f>I3+E3/K3</f>
         <v>10.670240072398885</v>
       </c>
-      <c r="M3" s="5">
-        <f t="shared" ref="M3:M10" si="5">K3/$K$2</f>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N10" si="0">L3/$L$2</f>
         <v>0.99895519755926776</v>
       </c>
-      <c r="N3" s="5">
-        <f t="shared" ref="N3:N18" si="6">J3/$J$2</f>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O32" si="1">K3/$K$2</f>
         <v>0.98399411239026446</v>
       </c>
-      <c r="O3" s="2">
-        <f t="shared" ref="O3:O18" si="7">M3*$J$2/J3</f>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P33" si="2">N3*$K$2/K3</f>
         <v>1.0152044458199658</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>43228.999305555553</v>
       </c>
@@ -3356,51 +2394,54 @@
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>0</v>
+        <f>C4*0.001+G4*0.001*K4</f>
+        <v>13.802954999999999</v>
       </c>
       <c r="E4" s="5">
+        <f>B4-C4</f>
+        <v>113904.4411</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
         <v>1.5</v>
       </c>
-      <c r="F4" s="5">
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <f>F4-G4</f>
+        <v>-1.5</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>9201.9699999999993</v>
+      </c>
+      <c r="L4" s="5">
+        <f>E4+I4*K4</f>
+        <v>100101.48609999999</v>
+      </c>
+      <c r="M4" s="5">
+        <f>I4+E4/K4</f>
+        <v>10.87826694718631</v>
+      </c>
+      <c r="N4" s="5">
         <f t="shared" si="0"/>
-        <v>113904.4411</v>
-      </c>
-      <c r="G4" s="5">
+        <v>1.0013152555766729</v>
+      </c>
+      <c r="O4" s="5">
         <f t="shared" si="1"/>
-        <v>-1.5</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
+        <v>0.96745728854544488</v>
+      </c>
+      <c r="P4" s="2">
         <f t="shared" si="2"/>
-        <v>13.802954999999999</v>
-      </c>
-      <c r="J4" s="5">
-        <v>9201.9699999999993</v>
-      </c>
-      <c r="K4" s="5">
-        <f t="shared" si="3"/>
-        <v>100101.48609999999</v>
-      </c>
-      <c r="L4" s="5">
-        <f t="shared" si="4"/>
-        <v>10.87826694718631</v>
-      </c>
-      <c r="M4" s="5">
-        <f t="shared" si="5"/>
-        <v>1.0013152555766729</v>
-      </c>
-      <c r="N4" s="5">
-        <f t="shared" si="6"/>
-        <v>0.96745728854544488</v>
-      </c>
-      <c r="O4" s="2">
-        <f t="shared" si="7"/>
         <v>1.0349968597395476</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>43229.999305555553</v>
       </c>
@@ -3412,51 +2453,54 @@
         <v>0</v>
       </c>
       <c r="D5" s="5">
-        <v>0</v>
+        <f>C5*0.001+G5*0.001*K5</f>
+        <v>13.928880000000001</v>
       </c>
       <c r="E5" s="5">
+        <f>B5-C5</f>
+        <v>113904.4411</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
         <v>1.5</v>
       </c>
-      <c r="F5" s="5">
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <f>F5-G5</f>
+        <v>-1.5</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>9285.92</v>
+      </c>
+      <c r="L5" s="5">
+        <f>E5+I5*K5</f>
+        <v>99975.561099999992</v>
+      </c>
+      <c r="M5" s="5">
+        <f>I5+E5/K5</f>
+        <v>10.766360371401003</v>
+      </c>
+      <c r="N5" s="5">
         <f t="shared" si="0"/>
-        <v>113904.4411</v>
-      </c>
-      <c r="G5" s="5">
+        <v>1.0000556276883064</v>
+      </c>
+      <c r="O5" s="5">
         <f t="shared" si="1"/>
-        <v>-1.5</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
+        <v>0.97628344635441311</v>
+      </c>
+      <c r="P5" s="2">
         <f t="shared" si="2"/>
-        <v>13.928880000000001</v>
-      </c>
-      <c r="J5" s="5">
-        <v>9285.92</v>
-      </c>
-      <c r="K5" s="5">
-        <f t="shared" si="3"/>
-        <v>99975.561099999992</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="4"/>
-        <v>10.766360371401003</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" si="5"/>
-        <v>1.0000556276883064</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.97628344635441311</v>
-      </c>
-      <c r="O5" s="2">
-        <f t="shared" si="7"/>
         <v>1.0243496716272944</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>43230.999305555553</v>
       </c>
@@ -3468,51 +2512,54 @@
         <v>0</v>
       </c>
       <c r="D6" s="5">
+        <f>C6*0.001+G6*0.001*K6</f>
         <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>0</v>
+        <f>B6-C6</f>
+        <v>99879.582193599999</v>
       </c>
       <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <f>F6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>28.049717812799997</v>
+      </c>
+      <c r="K6" s="5">
+        <v>9361.01</v>
+      </c>
+      <c r="L6" s="5">
+        <f>E6+I6*K6</f>
+        <v>99879.582193599999</v>
+      </c>
+      <c r="M6" s="5">
+        <f>I6+E6/K6</f>
+        <v>10.669744204268556</v>
+      </c>
+      <c r="N6" s="5">
         <f t="shared" si="0"/>
-        <v>99879.582193599999</v>
-      </c>
-      <c r="G6" s="5">
+        <v>0.99909555060118038</v>
+      </c>
+      <c r="O6" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>28.049717812799997</v>
-      </c>
-      <c r="I6" s="5">
+        <v>0.98417810019450147</v>
+      </c>
+      <c r="P6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>9361.01</v>
-      </c>
-      <c r="K6" s="5">
-        <f t="shared" si="3"/>
-        <v>99879.582193599999</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" si="4"/>
-        <v>10.669744204268556</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" si="5"/>
-        <v>0.99909555060118038</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" si="6"/>
-        <v>0.98417810019450147</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" si="7"/>
         <v>1.0151572671691547</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>43231.833333333336</v>
       </c>
@@ -3523,51 +2570,54 @@
         <v>0</v>
       </c>
       <c r="D7" s="5">
-        <v>0</v>
+        <f>C7*0.001+G7*0.001*K7</f>
+        <v>21.319524999999999</v>
       </c>
       <c r="E7" s="5">
+        <f>B7-C7</f>
+        <v>121999.47709025</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
         <v>2.5</v>
       </c>
-      <c r="F7" s="5">
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f>F7-G7</f>
+        <v>-2.5</v>
+      </c>
+      <c r="J7" s="5">
+        <v>44.68490036</v>
+      </c>
+      <c r="K7" s="5">
+        <v>8527.81</v>
+      </c>
+      <c r="L7" s="5">
+        <f>E7+I7*K7</f>
+        <v>100679.95209025001</v>
+      </c>
+      <c r="M7" s="5">
+        <f>I7+E7/K7</f>
+        <v>11.806073551152055</v>
+      </c>
+      <c r="N7" s="5">
         <f t="shared" si="0"/>
-        <v>121999.47709025</v>
-      </c>
-      <c r="G7" s="5">
+        <v>1.0071016513979194</v>
+      </c>
+      <c r="O7" s="5">
         <f t="shared" si="1"/>
-        <v>-2.5</v>
-      </c>
-      <c r="H7" s="5">
-        <v>44.68490036</v>
-      </c>
-      <c r="I7" s="5">
+        <v>0.89657887820007354</v>
+      </c>
+      <c r="P7" s="2">
         <f t="shared" si="2"/>
-        <v>21.319524999999999</v>
-      </c>
-      <c r="J7" s="5">
-        <v>8527.81</v>
-      </c>
-      <c r="K7" s="5">
-        <f t="shared" si="3"/>
-        <v>100679.95209025001</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" si="4"/>
-        <v>11.806073551152055</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" si="5"/>
-        <v>1.0071016513979194</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" si="6"/>
-        <v>0.89657887820007354</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" si="7"/>
         <v>1.1232716673180232</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>43232.833333333336</v>
       </c>
@@ -3581,47 +2631,50 @@
         <v>0</v>
       </c>
       <c r="E8" s="5">
+        <f>B8-C8</f>
+        <v>121999.47709025</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
         <v>2.5</v>
       </c>
-      <c r="F8" s="5">
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <f>F8-G8</f>
+        <v>-2.5</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>8606.76</v>
+      </c>
+      <c r="L8" s="5">
+        <f>E8+I8*K8</f>
+        <v>100482.57709025001</v>
+      </c>
+      <c r="M8" s="5">
+        <f>I8+E8/K8</f>
+        <v>11.674843621786827</v>
+      </c>
+      <c r="N8" s="5">
         <f t="shared" si="0"/>
-        <v>121999.47709025</v>
-      </c>
-      <c r="G8" s="5">
+        <v>1.0051273090952286</v>
+      </c>
+      <c r="O8" s="5">
         <f t="shared" si="1"/>
-        <v>-2.5</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>8606.76</v>
-      </c>
-      <c r="K8" s="5">
-        <f t="shared" si="3"/>
-        <v>100482.57709025001</v>
-      </c>
-      <c r="L8" s="5">
-        <f t="shared" si="4"/>
-        <v>11.674843621786827</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" si="5"/>
-        <v>1.0051273090952286</v>
-      </c>
-      <c r="N8" s="5">
-        <f t="shared" si="6"/>
         <v>0.9048793565683646</v>
       </c>
-      <c r="O8" s="2">
-        <f t="shared" si="7"/>
+      <c r="P8" s="2">
+        <f t="shared" si="2"/>
         <v>1.1107859868823189</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>43233.833333333336</v>
       </c>
@@ -3635,47 +2688,50 @@
         <v>0</v>
       </c>
       <c r="E9" s="5">
+        <f>B9-C9</f>
+        <v>121999.47709025</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
         <v>2.5</v>
       </c>
-      <c r="F9" s="5">
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <f>F9-G9</f>
+        <v>-2.5</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>8506.74</v>
+      </c>
+      <c r="L9" s="5">
+        <f>E9+I9*K9</f>
+        <v>100732.62709025</v>
+      </c>
+      <c r="M9" s="5">
+        <f>I9+E9/K9</f>
+        <v>11.84150768569981</v>
+      </c>
+      <c r="N9" s="5">
         <f t="shared" si="0"/>
-        <v>121999.47709025</v>
-      </c>
-      <c r="G9" s="5">
+        <v>1.0076285594703411</v>
+      </c>
+      <c r="O9" s="5">
         <f t="shared" si="1"/>
-        <v>-2.5</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>8506.74</v>
-      </c>
-      <c r="K9" s="5">
-        <f t="shared" si="3"/>
-        <v>100732.62709025</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" si="4"/>
-        <v>11.84150768569981</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" si="5"/>
-        <v>1.0076285594703411</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" si="6"/>
         <v>0.89436366503706033</v>
       </c>
-      <c r="O9" s="2">
-        <f t="shared" si="7"/>
+      <c r="P9" s="2">
+        <f t="shared" si="2"/>
         <v>1.1266429964242648</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>43234.250219907408</v>
       </c>
@@ -3683,53 +2739,56 @@
         <v>91964.329899999997</v>
       </c>
       <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <f>B10-C10</f>
+        <v>91964.329899999997</v>
+      </c>
+      <c r="F10" s="5">
         <v>1.5049999999999999</v>
       </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="G10" s="5">
         <v>0.5</v>
       </c>
-      <c r="F10" s="5">
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <f>F10-G10</f>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>8652.92</v>
+      </c>
+      <c r="L10" s="5">
+        <f>E10+I10*K10</f>
+        <v>100660.51449999999</v>
+      </c>
+      <c r="M10" s="5">
+        <f>I10+E10/K10</f>
+        <v>11.633126678624095</v>
+      </c>
+      <c r="N10" s="5">
         <f t="shared" si="0"/>
-        <v>91964.329899999997</v>
-      </c>
-      <c r="G10" s="5">
+        <v>1.0069072171651494</v>
+      </c>
+      <c r="O10" s="5">
         <f t="shared" si="1"/>
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>8652.92</v>
-      </c>
-      <c r="K10" s="5">
-        <f t="shared" si="3"/>
-        <v>100660.51449999999</v>
-      </c>
-      <c r="L10" s="5">
-        <f t="shared" si="4"/>
-        <v>11.633126678624095</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" si="5"/>
-        <v>1.0069072171651494</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" si="6"/>
         <v>0.90973242916469532</v>
       </c>
-      <c r="O10" s="2">
-        <f t="shared" si="7"/>
+      <c r="P10" s="2">
+        <f t="shared" si="2"/>
         <v>1.106816889104062</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>43234.753703703704</v>
       </c>
@@ -3737,52 +2796,55 @@
         <v>111944.3299</v>
       </c>
       <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <f>B11-C11</f>
+        <v>111944.3299</v>
+      </c>
+      <c r="F11" s="5">
         <v>1.5049999999999999</v>
       </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="G11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
-        <v>111944.3299</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <f>F11-G11</f>
+        <v>0.50499999999999989</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>8366.6200000000008</v>
+      </c>
+      <c r="L11" s="5">
+        <f>E11+I11*K11</f>
+        <v>116169.473</v>
+      </c>
+      <c r="M11" s="5">
+        <f>I11+E11/K11</f>
+        <v>13.884875015239128</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1.0099</v>
+      </c>
+      <c r="O11" s="5">
         <f t="shared" si="1"/>
-        <v>0.50499999999999989</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>8366.6200000000008</v>
-      </c>
-      <c r="K11" s="5">
-        <f t="shared" si="3"/>
-        <v>116169.473</v>
-      </c>
-      <c r="L11" s="5">
-        <f t="shared" si="4"/>
-        <v>13.884875015239128</v>
-      </c>
-      <c r="M11" s="5">
-        <v>1.0099</v>
-      </c>
-      <c r="N11" s="5">
-        <f t="shared" si="6"/>
         <v>0.8796320243915261</v>
       </c>
-      <c r="O11" s="2">
-        <f t="shared" si="7"/>
+      <c r="P11" s="2">
+        <f t="shared" si="2"/>
         <v>1.1480937164589762</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>43235.250555555554</v>
       </c>
@@ -3790,52 +2852,55 @@
         <v>81036.414999999994</v>
       </c>
       <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <f>B12-C12</f>
+        <v>81036.414999999994</v>
+      </c>
+      <c r="F12" s="5">
         <v>4.5049999999999999</v>
       </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="0"/>
-        <v>81036.414999999994</v>
-      </c>
       <c r="G12" s="5">
-        <f>C12-E12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <f>F12-G12</f>
         <v>4.5049999999999999</v>
       </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
       <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
         <v>8735.1200000000008</v>
       </c>
-      <c r="K12" s="5">
-        <f>F12+G12*J12</f>
+      <c r="L12" s="5">
+        <f>E12+I12*K12</f>
         <v>120388.1306</v>
       </c>
-      <c r="L12" s="5">
-        <f t="shared" si="4"/>
+      <c r="M12" s="5">
+        <f>I12+E12/K12</f>
         <v>13.782080910164943</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1.0102</v>
       </c>
-      <c r="N12" s="5">
-        <f t="shared" si="6"/>
+      <c r="O12" s="5">
+        <f t="shared" si="1"/>
         <v>0.91837459916942654</v>
       </c>
-      <c r="O12" s="2">
-        <f t="shared" si="7"/>
+      <c r="P12" s="2">
+        <f t="shared" si="2"/>
         <v>1.0999868690985355</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>43236.250069444446</v>
       </c>
@@ -3843,52 +2908,55 @@
         <v>81036.414999999994</v>
       </c>
       <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <f>B13-C13</f>
+        <v>81036.414999999994</v>
+      </c>
+      <c r="F13" s="5">
         <v>4.5049999999999999</v>
       </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <f>B13-D13</f>
-        <v>81036.414999999994</v>
-      </c>
       <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <f>F13-G13</f>
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>8699.56</v>
+      </c>
+      <c r="L13" s="5">
+        <f>E13+I13*K13</f>
+        <v>120227.93279999998</v>
+      </c>
+      <c r="M13" s="5">
+        <f>I13+E13/K13</f>
+        <v>13.820001563297453</v>
+      </c>
+      <c r="N13">
+        <v>1.0087999999999999</v>
+      </c>
+      <c r="O13" s="5">
         <f t="shared" si="1"/>
-        <v>4.5049999999999999</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>8699.56</v>
-      </c>
-      <c r="K13" s="5">
-        <f t="shared" si="3"/>
-        <v>120227.93279999998</v>
-      </c>
-      <c r="L13" s="5">
-        <f t="shared" si="4"/>
-        <v>13.820001563297453</v>
-      </c>
-      <c r="M13">
-        <v>1.0087999999999999</v>
-      </c>
-      <c r="N13" s="5">
-        <f t="shared" si="6"/>
         <v>0.91463596698733107</v>
       </c>
-      <c r="O13" s="2">
-        <f t="shared" si="7"/>
+      <c r="P13" s="2">
+        <f t="shared" si="2"/>
         <v>1.1029524711594609</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>43236.750115740739</v>
       </c>
@@ -3896,52 +2964,55 @@
         <v>183006.11689999999</v>
       </c>
       <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <f>B14-C14</f>
+        <v>183006.11689999999</v>
+      </c>
+      <c r="F14" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="G14" s="5">
         <v>7.5</v>
       </c>
-      <c r="F14" s="5">
-        <f t="shared" si="0"/>
-        <v>183006.11689999999</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f>F14-G14</f>
+        <v>-7.4950000000000001</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>8223.7099999999991</v>
+      </c>
+      <c r="L14" s="5">
+        <f>E14+I14*K14</f>
+        <v>121369.41045</v>
+      </c>
+      <c r="M14" s="5">
+        <f>I14+E14/K14</f>
+        <v>14.75847402814545</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1.0184</v>
+      </c>
+      <c r="O14" s="5">
         <f t="shared" si="1"/>
-        <v>-7.4950000000000001</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>8223.7099999999991</v>
-      </c>
-      <c r="K14" s="5">
-        <f t="shared" si="3"/>
-        <v>121369.41045</v>
-      </c>
-      <c r="L14" s="5">
-        <f t="shared" si="4"/>
-        <v>14.75847402814545</v>
-      </c>
-      <c r="M14" s="5">
-        <v>1.0184</v>
-      </c>
-      <c r="N14" s="5">
-        <f t="shared" si="6"/>
         <v>0.86460705461809384</v>
       </c>
-      <c r="O14" s="2">
-        <f t="shared" si="7"/>
+      <c r="P14" s="2">
+        <f t="shared" si="2"/>
         <v>1.1778761167404981</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>43237.349606481483</v>
       </c>
@@ -3949,52 +3020,55 @@
         <v>183006.11689999999</v>
       </c>
       <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <f>B15-C15</f>
+        <v>183006.11689999999</v>
+      </c>
+      <c r="F15" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="G15" s="5">
         <v>7.5</v>
       </c>
-      <c r="F15" s="5">
-        <f t="shared" si="0"/>
-        <v>183006.11689999999</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <f>F15-G15</f>
+        <v>-7.4950000000000001</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>8351.36</v>
+      </c>
+      <c r="L15" s="5">
+        <f>E15+I15*K15</f>
+        <v>120412.67369999998</v>
+      </c>
+      <c r="M15" s="5">
+        <f>I15+E15/K15</f>
+        <v>14.418331110142535</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1.0104</v>
+      </c>
+      <c r="O15" s="5">
         <f t="shared" si="1"/>
-        <v>-7.4950000000000001</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>8351.36</v>
-      </c>
-      <c r="K15" s="5">
-        <f t="shared" si="3"/>
-        <v>120412.67369999998</v>
-      </c>
-      <c r="L15" s="5">
-        <f t="shared" si="4"/>
-        <v>14.418331110142535</v>
-      </c>
-      <c r="M15" s="5">
-        <v>1.0104</v>
-      </c>
-      <c r="N15" s="5">
-        <f t="shared" si="6"/>
         <v>0.87802765073857969</v>
       </c>
-      <c r="O15" s="2">
-        <f t="shared" si="7"/>
+      <c r="P15" s="2">
+        <f t="shared" si="2"/>
         <v>1.1507610257490994</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>43237.750277777777</v>
       </c>
@@ -4002,52 +3076,55 @@
         <v>170391.74969999999</v>
       </c>
       <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <f>B16-C16</f>
+        <v>170391.74969999999</v>
+      </c>
+      <c r="F16" s="5">
         <v>1.5049999999999999</v>
       </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="G16" s="5">
         <v>7.5</v>
       </c>
-      <c r="F16" s="5">
-        <f t="shared" si="0"/>
-        <v>170391.74969999999</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <f>F16-G16</f>
+        <v>-5.9950000000000001</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>8278.93</v>
+      </c>
+      <c r="L16" s="5">
+        <f>E16+I16*K16</f>
+        <v>120759.56434999999</v>
+      </c>
+      <c r="M16" s="5">
+        <f>I16+E16/K16</f>
+        <v>14.586373402118387</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1.0133000000000001</v>
+      </c>
+      <c r="O16" s="5">
         <f t="shared" si="1"/>
-        <v>-5.9950000000000001</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
-        <v>8278.93</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" si="3"/>
-        <v>120759.56434999999</v>
-      </c>
-      <c r="L16" s="5">
-        <f t="shared" si="4"/>
-        <v>14.586373402118387</v>
-      </c>
-      <c r="M16" s="5">
-        <v>1.0133000000000001</v>
-      </c>
-      <c r="N16" s="5">
-        <f t="shared" si="6"/>
         <v>0.87041265836093151</v>
       </c>
-      <c r="O16" s="2">
-        <f t="shared" si="7"/>
+      <c r="P16" s="2">
+        <f t="shared" si="2"/>
         <v>1.1641604591414592</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>43238.250219907408</v>
       </c>
@@ -4055,52 +3132,55 @@
         <v>157961.66630000001</v>
       </c>
       <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <f>B17-C17</f>
+        <v>157961.66630000001</v>
+      </c>
+      <c r="F17" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="G17" s="5">
         <v>4.5</v>
       </c>
-      <c r="F17" s="5">
-        <f t="shared" si="0"/>
-        <v>157961.66630000001</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <f>F17-G17</f>
+        <v>-4.4950000000000001</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>8146.25</v>
+      </c>
+      <c r="L17" s="5">
+        <f>E17+I17*K17</f>
+        <v>121344.27255000001</v>
+      </c>
+      <c r="M17" s="5">
+        <f>I17+E17/K17</f>
+        <v>14.895721657204234</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1.0182</v>
+      </c>
+      <c r="O17" s="5">
         <f t="shared" si="1"/>
-        <v>-4.4950000000000001</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5">
-        <v>8146.25</v>
-      </c>
-      <c r="K17" s="5">
-        <f t="shared" si="3"/>
-        <v>121344.27255000001</v>
-      </c>
-      <c r="L17" s="5">
-        <f t="shared" si="4"/>
-        <v>14.895721657204234</v>
-      </c>
-      <c r="M17" s="5">
-        <v>1.0182</v>
-      </c>
-      <c r="N17" s="5">
-        <f t="shared" si="6"/>
         <v>0.85646322872312464</v>
       </c>
-      <c r="O17" s="2">
-        <f t="shared" si="7"/>
+      <c r="P17" s="2">
+        <f t="shared" si="2"/>
         <v>1.1888426331133957</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>43238.750162037039</v>
       </c>
@@ -4108,66 +3188,884 @@
         <v>158033.94500000001</v>
       </c>
       <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <f>B18-C18</f>
+        <v>158033.94500000001</v>
+      </c>
+      <c r="F18" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="G18" s="5">
         <v>4.5</v>
       </c>
-      <c r="F18" s="5">
-        <f t="shared" si="0"/>
-        <v>158033.94500000001</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <f>F18-G18</f>
+        <v>-4.4950000000000001</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>8114.73</v>
+      </c>
+      <c r="L18" s="5">
+        <f>E18+I18*K18</f>
+        <v>121558.23365000001</v>
+      </c>
+      <c r="M18" s="5">
+        <f>I18+E18/K18</f>
+        <v>14.979948026613332</v>
+      </c>
+      <c r="N18" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="O18" s="5">
         <f t="shared" si="1"/>
-        <v>-4.4950000000000001</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5">
-        <v>8114.73</v>
-      </c>
-      <c r="K18" s="5">
+        <v>0.85314934552909627</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1955702777541581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
+        <v>43239.250127314815</v>
+      </c>
+      <c r="B19" s="11">
+        <v>158023.3253</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <f>B19-C19</f>
+        <v>158023.3253</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="G19" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="H19" s="5">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I19" s="5">
+        <f>F19-G19</f>
+        <v>-4.4980000000000002</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>8228</v>
+      </c>
+      <c r="L19" s="5">
+        <v>121010.5007</v>
+      </c>
+      <c r="M19" s="5">
+        <f>I19+E19/K19</f>
+        <v>14.707557280019444</v>
+      </c>
+      <c r="N19">
+        <v>1.0154000000000001</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="1"/>
+        <v>0.8650580875781948</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1737940082644629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="10">
+        <v>43239.750092592592</v>
+      </c>
+      <c r="B20" s="11">
+        <v>158023.3253</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <f>B20-C20</f>
+        <v>158023.3253</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="G20" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1.9E-3</v>
+      </c>
+      <c r="I20" s="5">
+        <f>F20-G20</f>
+        <v>-4.4980000000000002</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>8190.47</v>
+      </c>
+      <c r="L20" s="5">
+        <v>121167.0399</v>
+      </c>
+      <c r="M20" s="5">
+        <f>I20+E20/K20</f>
+        <v>14.795560113155897</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1.0166999999999999</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="1"/>
+        <v>0.86111233769647266</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1806821891783987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="10">
+        <v>43240.250034722223</v>
+      </c>
+      <c r="B21">
+        <v>133005.65479999999</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <f>B21-C21</f>
+        <v>133005.65479999999</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2.996</v>
+      </c>
+      <c r="G21" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="H21" s="5">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="I21" s="5">
+        <f>F21-G21</f>
+        <v>-1.504</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>8195.7999999999993</v>
+      </c>
+      <c r="L21" s="5">
+        <f>E21+I21*K21</f>
+        <v>120679.17159999999</v>
+      </c>
+      <c r="M21" s="5">
+        <f>I21+E21/K21</f>
+        <v>14.724513970570294</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1.0123</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="1"/>
+        <v>0.86167271198023443</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="2"/>
+        <v>1.174808005319798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="10">
+        <v>43240.750555555554</v>
+      </c>
+      <c r="B22" s="11">
+        <v>145385.84479999999</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <f>B22-C22</f>
+        <v>145385.84479999999</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1.496</v>
+      </c>
+      <c r="G22" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="H22" s="11">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" ref="I22:I34" si="3">F22-G22</f>
+        <v>-3.004</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
+        <v>8350.09</v>
+      </c>
+      <c r="L22" s="5">
+        <v>120248.7447</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" ref="M22:M32" si="4">I22+E22/K22</f>
+        <v>14.407290752554763</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="1"/>
+        <v>0.8778941281606476</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1493413244647661</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="10">
+        <v>43241.250509259262</v>
+      </c>
+      <c r="B23" s="11">
+        <v>56617.216399999998</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <f>B23-C23</f>
+        <v>56617.216399999998</v>
+      </c>
+      <c r="F23" s="11">
+        <v>4.6482999999999999</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
         <f t="shared" si="3"/>
-        <v>121558.23365000001</v>
-      </c>
-      <c r="L18" s="5">
+        <v>4.6482999999999999</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>8533.41</v>
+      </c>
+      <c r="L23" s="11">
+        <v>120098.37880000001</v>
+      </c>
+      <c r="M23" s="5">
         <f t="shared" si="4"/>
-        <v>14.979948026613332</v>
-      </c>
-      <c r="M18" s="5">
-        <v>1.02</v>
-      </c>
-      <c r="N18" s="5">
+        <v>11.28307043760935</v>
+      </c>
+      <c r="N23" s="11">
+        <v>1.0077</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="1"/>
+        <v>0.89716763917363196</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1232014575650298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="10">
+        <v>43241.750451388885</v>
+      </c>
+      <c r="B24" s="11">
+        <v>56617.216399999998</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" ref="E24:E27" si="5">B24-C24</f>
+        <v>56617.216399999998</v>
+      </c>
+      <c r="F24" s="11">
+        <v>5.9756</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="3"/>
+        <v>5.9756</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <v>8470.43</v>
+      </c>
+      <c r="L24" s="11">
+        <v>119839.2444</v>
+      </c>
+      <c r="M24" s="5">
+        <f t="shared" si="4"/>
+        <v>12.659701798846104</v>
+      </c>
+      <c r="N24" s="11">
+        <v>1.0056</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="1"/>
+        <v>0.89054618093886351</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1291946689837469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="10">
+        <v>43242.250381944446</v>
+      </c>
+      <c r="B25" s="11">
+        <v>81708.660199999998</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="5"/>
+        <v>81708.660199999998</v>
+      </c>
+      <c r="F25" s="11">
+        <v>4.4725999999999999</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="3"/>
+        <v>4.4725999999999999</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>8379.69</v>
+      </c>
+      <c r="L25" s="11">
+        <v>119187.5049</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" si="4"/>
+        <v>14.223397487735225</v>
+      </c>
+      <c r="N25" s="11">
+        <v>1.0001</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" si="1"/>
+        <v>0.88100615044945596</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1351793622437107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="10">
+        <v>43242.750335648147</v>
+      </c>
+      <c r="B26" s="11">
+        <v>94111.744699999996</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="5"/>
+        <v>94111.744699999996</v>
+      </c>
+      <c r="F26" s="11">
+        <v>2.9725999999999999</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="3"/>
+        <v>2.9725999999999999</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <v>8238.74</v>
+      </c>
+      <c r="L26" s="11">
+        <v>118602.06909999999</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="4"/>
+        <v>14.39567497262931</v>
+      </c>
+      <c r="N26" s="11">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.86618724701676919</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1489432607413268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="10">
+        <v>43243.250324074077</v>
+      </c>
+      <c r="B27" s="11">
+        <v>126552.7984</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="5"/>
+        <v>126552.7984</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1.4725999999999999</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="H27" s="11">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.0274000000000001</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>8078.38</v>
+      </c>
+      <c r="L27" s="11">
+        <v>118232.7237</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="4"/>
+        <v>14.63821592794595</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.84932765599537408</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1681004297891409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="10">
+        <v>43243.750289351854</v>
+      </c>
+      <c r="B28" s="11">
+        <v>150531.7144</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" ref="E25:E34" si="6">B28-C28</f>
+        <v>150531.7144</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1.4725999999999999</v>
+      </c>
+      <c r="G28" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="H28" s="11">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.0274000000000001</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <v>7836.11</v>
+      </c>
+      <c r="L28" s="11">
+        <v>118929.3198</v>
+      </c>
+      <c r="M28" s="5">
+        <f t="shared" si="4"/>
+        <v>15.182605270472212</v>
+      </c>
+      <c r="N28" s="11">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="1"/>
+        <v>0.82385638437680697</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2112547998943353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="10">
+        <v>43244.250219907408</v>
+      </c>
+      <c r="B29" s="11">
+        <v>150531.7144</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
         <f t="shared" si="6"/>
-        <v>0.85314934552909627</v>
-      </c>
-      <c r="O18" s="2">
-        <f t="shared" si="7"/>
-        <v>1.1955702777541581</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="G19" s="5">
+        <v>150531.7144</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1.4725999999999999</v>
+      </c>
+      <c r="G29" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="H29" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.0274000000000001</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>7643.32</v>
+      </c>
+      <c r="L29" s="11">
+        <v>119687.7179</v>
+      </c>
+      <c r="M29" s="5">
+        <f t="shared" si="4"/>
+        <v>15.667145616302864</v>
+      </c>
+      <c r="N29" s="11">
+        <v>1.0043</v>
+      </c>
+      <c r="O29" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="G20" s="5">
+        <v>0.80358723650318031</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2497709699449977</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="10">
+        <v>43244.750150462962</v>
+      </c>
+      <c r="B30" s="11">
+        <v>139166.6146</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="6"/>
+        <v>139166.6146</v>
+      </c>
+      <c r="F30" s="11">
+        <f>0.0006+1.469</f>
+        <v>1.4696</v>
+      </c>
+      <c r="G30" s="5">
+        <v>4</v>
+      </c>
+      <c r="H30" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.5304000000000002</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>7374.19</v>
+      </c>
+      <c r="L30" s="11">
+        <v>120447.7885</v>
+      </c>
+      <c r="M30" s="5">
+        <f t="shared" si="4"/>
+        <v>16.341722172062287</v>
+      </c>
+      <c r="N30" s="11">
+        <v>1.0106999999999999</v>
+      </c>
+      <c r="O30" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="G21" s="5">
+        <v>0.77529201492929611</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" si="2"/>
+        <v>1.303637830053199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="10">
+        <v>43245.250115740739</v>
+      </c>
+      <c r="B31" s="11">
+        <v>150148.5772</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="6"/>
+        <v>150148.5772</v>
+      </c>
+      <c r="F31" s="11">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G31" s="11">
+        <v>4</v>
+      </c>
+      <c r="H31" s="11">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.9994000000000001</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <v>7507.33</v>
+      </c>
+      <c r="L31" s="11">
+        <v>120056.0101</v>
+      </c>
+      <c r="M31" s="5">
+        <f t="shared" si="4"/>
+        <v>16.000863369267101</v>
+      </c>
+      <c r="N31" s="11">
+        <v>1.0074000000000001</v>
+      </c>
+      <c r="O31" s="5">
         <f t="shared" si="1"/>
+        <v>0.78928980707564522</v>
+      </c>
+      <c r="P31" s="2" t="e">
+        <f>#REF!*$K$2/K31</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="10">
+        <v>43245.750057870369</v>
+      </c>
+      <c r="B32" s="11">
+        <v>146334.9356</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="6"/>
+        <v>146334.9356</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1E-4</v>
+      </c>
+      <c r="G32" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.4998999999999998</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <v>7407.1</v>
+      </c>
+      <c r="L32" s="5">
+        <f>E32+I32*K32</f>
+        <v>120410.82631</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" si="4"/>
+        <v>16.256136181501532</v>
+      </c>
+      <c r="N32" s="11">
+        <v>1.0097</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="1"/>
+        <v>0.77875203700783269</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2965616165570872</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="P33" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="J36" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4211,37 +4109,37 @@
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>0</v>
@@ -4778,7 +4676,7 @@
         <v>9355</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M10" s="3">
         <v>9355.99</v>
@@ -4896,7 +4794,7 @@
         <v>9289.6273999999994</v>
       </c>
       <c r="L12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M12">
         <v>9289.39</v>

--- a/document/quant_result.xlsx
+++ b/document/quant_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="持仓" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
   <si>
     <t>price</t>
   </si>
@@ -183,6 +183,9 @@
     <t>BTC利息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>2018-05-26 06:00:42</t>
+  </si>
 </sst>
 </file>
 
@@ -320,7 +323,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -333,12 +336,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
+              <a:rPr lang="en-US"/>
               <a:t>BitQuant </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" sz="1600"/>
-              <a:t>业绩报告</a:t>
+              <a:rPr lang="zh-CN"/>
+              <a:t>净值报告</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -357,7 +360,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -405,113 +408,154 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>持仓!$A$2:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy/m/d;@</c:formatCode>
-                <c:ptCount val="35"/>
+            <c:strRef>
+              <c:f>持仓!$A$2:$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>43226.999305555553</c:v>
+                  <c:v>2018/5/6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43227.999305555553</c:v>
+                  <c:v>2018/5/7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43228.999305555553</c:v>
+                  <c:v>2018/5/8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43229.999305555553</c:v>
+                  <c:v>2018/5/9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43230.999305555553</c:v>
+                  <c:v>2018/5/10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43231.833333333336</c:v>
+                  <c:v>2018/5/11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43232.833333333336</c:v>
+                  <c:v>2018/5/12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43233.833333333336</c:v>
+                  <c:v>2018/5/13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43234.250219907408</c:v>
+                  <c:v>2018/5/14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43234.753703703704</c:v>
+                  <c:v>2018/5/14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43235.250555555554</c:v>
+                  <c:v>2018/5/15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43236.250069444446</c:v>
+                  <c:v>2018/5/16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43236.750115740739</c:v>
+                  <c:v>2018/5/16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43237.349606481483</c:v>
+                  <c:v>2018/5/17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43237.750277777777</c:v>
+                  <c:v>2018/5/17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43238.250219907408</c:v>
+                  <c:v>2018/5/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43238.750162037039</c:v>
+                  <c:v>2018/5/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43239.250127314815</c:v>
+                  <c:v>2018/5/19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43239.750092592592</c:v>
+                  <c:v>2018/5/19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43240.250034722223</c:v>
+                  <c:v>2018/5/20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43240.750555555554</c:v>
+                  <c:v>2018/5/20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43241.250509259262</c:v>
+                  <c:v>2018/5/21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43241.750451388885</c:v>
+                  <c:v>2018/5/21</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43242.250381944446</c:v>
+                  <c:v>2018/5/22</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43242.750335648147</c:v>
+                  <c:v>2018/5/22</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43243.250324074077</c:v>
+                  <c:v>2018/5/23</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43243.750289351854</c:v>
+                  <c:v>2018/5/23</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43244.250219907408</c:v>
+                  <c:v>2018/5/24</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43244.750150462962</c:v>
+                  <c:v>2018/5/24</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43245.250115740739</c:v>
+                  <c:v>2018/5/25</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43245.750057870369</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2018/5/25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2018-05-26 06:00:42</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018/5/26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018/5/27</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2018/5/27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2018/5/28</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2018/5/28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2018/5/29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2018/5/29</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2018/5/30</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2018/5/30</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2018/5/31</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2018/5/31</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2018/6/1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2018/6/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>持仓!$L$2:$L$36</c:f>
+              <c:f>持仓!$L$2:$L$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>99970</c:v>
                 </c:pt>
@@ -604,6 +648,48 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>120410.82631</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>120211.4843</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>119713.8509</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>119880.39</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>120144.95</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>120114.23149999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>120345.3495</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>120499.33620000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>120529.7608</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>119899.34329999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>119877.5577</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>120052.8976</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>119480.42329999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>119431.78660000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>119476.80439999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -618,14 +704,14 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1237404968"/>
-        <c:axId val="1237404576"/>
+        <c:axId val="1620859016"/>
+        <c:axId val="1620854312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -634,6 +720,321 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>策略净值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>持仓!$A$2:$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>2018/5/6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018/5/7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018/5/8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018/5/9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018/5/10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018/5/11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018/5/12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018/5/13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018/5/14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018/5/14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018/5/15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2018/5/16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018/5/16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2018/5/17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018/5/17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018/5/18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018/5/18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2018/5/19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018/5/19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2018/5/20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018/5/20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018/5/21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2018/5/21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018/5/22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2018/5/22</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2018/5/23</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2018/5/23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2018/5/24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2018/5/24</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2018/5/25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2018/5/25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2018-05-26 06:00:42</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018/5/26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018/5/27</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2018/5/27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2018/5/28</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2018/5/28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2018/5/29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2018/5/29</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2018/5/30</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2018/5/30</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2018/5/31</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2018/5/31</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2018/6/1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2018/6/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>持仓!$N$2:$N$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99895519755926776</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0013152555766729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0000556276883064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99909555060118038</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0071016513979194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0051273090952286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0076285594703411</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0069072171651494</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0087999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0184</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0182</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0154000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0166999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0123</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0077</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0056</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99519999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0043</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0106999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0074000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0097</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0086999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0044999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0059</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0081</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0079</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0098</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0111000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0114000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0061</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0059</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0074000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0025999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0021</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0024999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>持仓!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基准净值</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -651,349 +1052,158 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>持仓!$A$2:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy/m/d;@</c:formatCode>
-                <c:ptCount val="35"/>
+            <c:strRef>
+              <c:f>持仓!$A$2:$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>43226.999305555553</c:v>
+                  <c:v>2018/5/6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43227.999305555553</c:v>
+                  <c:v>2018/5/7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43228.999305555553</c:v>
+                  <c:v>2018/5/8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43229.999305555553</c:v>
+                  <c:v>2018/5/9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43230.999305555553</c:v>
+                  <c:v>2018/5/10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43231.833333333336</c:v>
+                  <c:v>2018/5/11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43232.833333333336</c:v>
+                  <c:v>2018/5/12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43233.833333333336</c:v>
+                  <c:v>2018/5/13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43234.250219907408</c:v>
+                  <c:v>2018/5/14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43234.753703703704</c:v>
+                  <c:v>2018/5/14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43235.250555555554</c:v>
+                  <c:v>2018/5/15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43236.250069444446</c:v>
+                  <c:v>2018/5/16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43236.750115740739</c:v>
+                  <c:v>2018/5/16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43237.349606481483</c:v>
+                  <c:v>2018/5/17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43237.750277777777</c:v>
+                  <c:v>2018/5/17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43238.250219907408</c:v>
+                  <c:v>2018/5/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43238.750162037039</c:v>
+                  <c:v>2018/5/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43239.250127314815</c:v>
+                  <c:v>2018/5/19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43239.750092592592</c:v>
+                  <c:v>2018/5/19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43240.250034722223</c:v>
+                  <c:v>2018/5/20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43240.750555555554</c:v>
+                  <c:v>2018/5/20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43241.250509259262</c:v>
+                  <c:v>2018/5/21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43241.750451388885</c:v>
+                  <c:v>2018/5/21</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43242.250381944446</c:v>
+                  <c:v>2018/5/22</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43242.750335648147</c:v>
+                  <c:v>2018/5/22</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43243.250324074077</c:v>
+                  <c:v>2018/5/23</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43243.750289351854</c:v>
+                  <c:v>2018/5/23</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43244.250219907408</c:v>
+                  <c:v>2018/5/24</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43244.750150462962</c:v>
+                  <c:v>2018/5/24</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43245.250115740739</c:v>
+                  <c:v>2018/5/25</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43245.750057870369</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2018/5/25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2018-05-26 06:00:42</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018/5/26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018/5/27</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2018/5/27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2018/5/28</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2018/5/28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2018/5/29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2018/5/29</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2018/5/30</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2018/5/30</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2018/5/31</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2018/5/31</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2018/6/1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2018/6/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>持仓!$N$2:$N$36</c:f>
+              <c:f>持仓!$O$2:$O$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99895519755926776</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0013152555766729</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0000556276883064</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.99909555060118038</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0071016513979194</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0051273090952286</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0076285594703411</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0069072171651494</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0099</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0102</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0087999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0184</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0104</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0133000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0182</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0154000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0166999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.0123</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.0089999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.0077</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.0056</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.0001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.99519999999999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.99209999999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.99790000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.0043</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.0106999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.0074000000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.0097</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>持仓!$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>基准净值</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>持仓!$A$2:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy/m/d;@</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>43226.999305555553</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43227.999305555553</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43228.999305555553</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43229.999305555553</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43230.999305555553</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43231.833333333336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43232.833333333336</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43233.833333333336</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43234.250219907408</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43234.753703703704</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43235.250555555554</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43236.250069444446</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43236.750115740739</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43237.349606481483</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43237.750277777777</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43238.250219907408</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43238.750162037039</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43239.250127314815</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43239.750092592592</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43240.250034722223</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43240.750555555554</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43241.250509259262</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43241.750451388885</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43242.250381944446</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43242.750335648147</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43243.250324074077</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43243.750289351854</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43244.250219907408</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43244.750150462962</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43245.250115740739</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43245.750057870369</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>持仓!$O$2:$O$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>0.98399411239026446</c:v>
                 </c:pt>
                 <c:pt idx="2">
@@ -1082,6 +1292,48 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.77875203700783269</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.7822751406192503</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.79320401619092684</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.78432844451453509</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.76939704568154343</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.77080481522367661</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.7576565210534616</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.75219471166482677</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.75003627188140676</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78812069599957946</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.78804920359564734</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.77209693528886092</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.79197497765862379</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.79352783472638388</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.79118856121537096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,17 +1350,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1231531400"/>
-        <c:axId val="1231531008"/>
+        <c:axId val="1616042432"/>
+        <c:axId val="1616041648"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1231531400"/>
+      <c:catAx>
+        <c:axId val="1616042432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy/m/d;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1130,7 +1382,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1145,14 +1397,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1231531008"/>
+        <c:crossAx val="1616041648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="1231531008"/>
+        <c:axId val="1616041648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.70000000000000007"/>
@@ -1189,7 +1442,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1204,16 +1457,16 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1231531400"/>
+        <c:crossAx val="1616042432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1237404576"/>
+        <c:axId val="1620854312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="150000"/>
-          <c:min val="50000"/>
+          <c:max val="140000"/>
+          <c:min val="80000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -1233,7 +1486,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1248,26 +1501,27 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1237404968"/>
+        <c:crossAx val="1620859016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dateAx>
-        <c:axId val="1237404968"/>
+      <c:catAx>
+        <c:axId val="1620859016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy/m/d;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1237404576"/>
+        <c:crossAx val="1620854312"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1292,7 +1546,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1332,7 +1586,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200">
+        <a:defRPr>
           <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
         </a:defRPr>
@@ -1908,20 +2162,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>530679</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>163284</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2202,17 +2456,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="10" customWidth="1"/>
     <col min="4" max="5" width="10.75" customWidth="1"/>
     <col min="7" max="10" width="10.75" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2276,11 +2533,11 @@
         <v>0</v>
       </c>
       <c r="D2" s="5">
-        <f>C2*0.001+G2*0.001*K2</f>
+        <f t="shared" ref="D2:D7" si="0">C2*0.001+G2*0.001*K2</f>
         <v>0</v>
       </c>
       <c r="E2" s="5">
-        <f>B2-C2</f>
+        <f t="shared" ref="E2:E23" si="1">B2-C2</f>
         <v>99970</v>
       </c>
       <c r="F2" s="5">
@@ -2303,11 +2560,11 @@
         <v>9511.5</v>
       </c>
       <c r="L2" s="5">
-        <f>E2+I2*K2</f>
+        <f t="shared" ref="L2:L18" si="2">E2+I2*K2</f>
         <v>99970</v>
       </c>
       <c r="M2" s="5">
-        <f>I2+E2/K2</f>
+        <f>L2/K2</f>
         <v>10.510434736897439</v>
       </c>
       <c r="N2" s="5">
@@ -2335,11 +2592,11 @@
         <v>0</v>
       </c>
       <c r="D3" s="5">
-        <f>C3*0.001+G3*0.001*K3</f>
+        <f t="shared" si="0"/>
         <v>14.03889</v>
       </c>
       <c r="E3" s="5">
-        <f>B3-C3</f>
+        <f t="shared" si="1"/>
         <v>113904.4411</v>
       </c>
       <c r="F3" s="5">
@@ -2352,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="5">
-        <f>F3-G3</f>
+        <f t="shared" ref="I3:I21" si="3">F3-G3</f>
         <v>-1.5</v>
       </c>
       <c r="J3" s="6">
@@ -2362,23 +2619,23 @@
         <v>9359.26</v>
       </c>
       <c r="L3" s="5">
-        <f>E3+I3*K3</f>
+        <f t="shared" si="2"/>
         <v>99865.551099999997</v>
       </c>
       <c r="M3" s="5">
-        <f>I3+E3/K3</f>
+        <f t="shared" ref="M3:M46" si="4">L3/K3</f>
         <v>10.670240072398885</v>
       </c>
       <c r="N3" s="5">
-        <f t="shared" ref="N3:N10" si="0">L3/$L$2</f>
+        <f t="shared" ref="N3:N10" si="5">L3/$L$2</f>
         <v>0.99895519755926776</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" ref="O3:O32" si="1">K3/$K$2</f>
+        <f t="shared" ref="O3:O46" si="6">K3/$K$2</f>
         <v>0.98399411239026446</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" ref="P3:P33" si="2">N3*$K$2/K3</f>
+        <f t="shared" ref="P3:P46" si="7">N3*$K$2/K3</f>
         <v>1.0152044458199658</v>
       </c>
     </row>
@@ -2394,11 +2651,11 @@
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <f>C4*0.001+G4*0.001*K4</f>
+        <f t="shared" si="0"/>
         <v>13.802954999999999</v>
       </c>
       <c r="E4" s="5">
-        <f>B4-C4</f>
+        <f t="shared" si="1"/>
         <v>113904.4411</v>
       </c>
       <c r="F4" s="5">
@@ -2411,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <f>F4-G4</f>
+        <f t="shared" si="3"/>
         <v>-1.5</v>
       </c>
       <c r="J4" s="5">
@@ -2421,23 +2678,23 @@
         <v>9201.9699999999993</v>
       </c>
       <c r="L4" s="5">
-        <f>E4+I4*K4</f>
+        <f t="shared" si="2"/>
         <v>100101.48609999999</v>
       </c>
       <c r="M4" s="5">
-        <f>I4+E4/K4</f>
+        <f t="shared" si="4"/>
         <v>10.87826694718631</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.0013152555766729</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.96745728854544488</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.0349968597395476</v>
       </c>
     </row>
@@ -2453,11 +2710,11 @@
         <v>0</v>
       </c>
       <c r="D5" s="5">
-        <f>C5*0.001+G5*0.001*K5</f>
+        <f t="shared" si="0"/>
         <v>13.928880000000001</v>
       </c>
       <c r="E5" s="5">
-        <f>B5-C5</f>
+        <f t="shared" si="1"/>
         <v>113904.4411</v>
       </c>
       <c r="F5" s="5">
@@ -2470,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="5">
-        <f>F5-G5</f>
+        <f t="shared" si="3"/>
         <v>-1.5</v>
       </c>
       <c r="J5" s="5">
@@ -2480,23 +2737,23 @@
         <v>9285.92</v>
       </c>
       <c r="L5" s="5">
-        <f>E5+I5*K5</f>
+        <f t="shared" si="2"/>
         <v>99975.561099999992</v>
       </c>
       <c r="M5" s="5">
-        <f>I5+E5/K5</f>
-        <v>10.766360371401003</v>
+        <f t="shared" si="4"/>
+        <v>10.766360371401001</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.0000556276883064</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.97628344635441311</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.0243496716272944</v>
       </c>
     </row>
@@ -2512,11 +2769,11 @@
         <v>0</v>
       </c>
       <c r="D6" s="5">
-        <f>C6*0.001+G6*0.001*K6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="5">
-        <f>B6-C6</f>
+        <f t="shared" si="1"/>
         <v>99879.582193599999</v>
       </c>
       <c r="F6" s="5">
@@ -2529,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="5">
-        <f>F6-G6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J6" s="5">
@@ -2539,23 +2796,23 @@
         <v>9361.01</v>
       </c>
       <c r="L6" s="5">
-        <f>E6+I6*K6</f>
+        <f t="shared" si="2"/>
         <v>99879.582193599999</v>
       </c>
       <c r="M6" s="5">
-        <f>I6+E6/K6</f>
+        <f t="shared" si="4"/>
         <v>10.669744204268556</v>
       </c>
       <c r="N6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.99909555060118038</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.98417810019450147</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.0151572671691547</v>
       </c>
     </row>
@@ -2570,11 +2827,11 @@
         <v>0</v>
       </c>
       <c r="D7" s="5">
-        <f>C7*0.001+G7*0.001*K7</f>
+        <f t="shared" si="0"/>
         <v>21.319524999999999</v>
       </c>
       <c r="E7" s="5">
-        <f>B7-C7</f>
+        <f t="shared" si="1"/>
         <v>121999.47709025</v>
       </c>
       <c r="F7" s="5">
@@ -2587,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <f>F7-G7</f>
+        <f t="shared" si="3"/>
         <v>-2.5</v>
       </c>
       <c r="J7" s="5">
@@ -2597,23 +2854,23 @@
         <v>8527.81</v>
       </c>
       <c r="L7" s="5">
-        <f>E7+I7*K7</f>
+        <f t="shared" si="2"/>
         <v>100679.95209025001</v>
       </c>
       <c r="M7" s="5">
-        <f>I7+E7/K7</f>
+        <f t="shared" si="4"/>
         <v>11.806073551152055</v>
       </c>
       <c r="N7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.0071016513979194</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.89657887820007354</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1232716673180232</v>
       </c>
     </row>
@@ -2631,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5">
-        <f>B8-C8</f>
+        <f t="shared" si="1"/>
         <v>121999.47709025</v>
       </c>
       <c r="F8" s="5">
@@ -2644,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <f>F8-G8</f>
+        <f t="shared" si="3"/>
         <v>-2.5</v>
       </c>
       <c r="J8" s="5">
@@ -2654,23 +2911,23 @@
         <v>8606.76</v>
       </c>
       <c r="L8" s="5">
-        <f>E8+I8*K8</f>
+        <f t="shared" si="2"/>
         <v>100482.57709025001</v>
       </c>
       <c r="M8" s="5">
-        <f>I8+E8/K8</f>
-        <v>11.674843621786827</v>
+        <f t="shared" si="4"/>
+        <v>11.674843621786829</v>
       </c>
       <c r="N8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.0051273090952286</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.9048793565683646</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1107859868823189</v>
       </c>
     </row>
@@ -2688,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="5">
-        <f>B9-C9</f>
+        <f t="shared" si="1"/>
         <v>121999.47709025</v>
       </c>
       <c r="F9" s="5">
@@ -2701,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="5">
-        <f>F9-G9</f>
+        <f t="shared" si="3"/>
         <v>-2.5</v>
       </c>
       <c r="J9" s="5">
@@ -2711,23 +2968,23 @@
         <v>8506.74</v>
       </c>
       <c r="L9" s="5">
-        <f>E9+I9*K9</f>
+        <f t="shared" si="2"/>
         <v>100732.62709025</v>
       </c>
       <c r="M9" s="5">
-        <f>I9+E9/K9</f>
+        <f t="shared" si="4"/>
         <v>11.84150768569981</v>
       </c>
       <c r="N9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.0076285594703411</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.89436366503706033</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1266429964242648</v>
       </c>
     </row>
@@ -2745,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="5">
-        <f>B10-C10</f>
+        <f t="shared" si="1"/>
         <v>91964.329899999997</v>
       </c>
       <c r="F10" s="5">
@@ -2758,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="5">
-        <f>F10-G10</f>
+        <f t="shared" si="3"/>
         <v>1.0049999999999999</v>
       </c>
       <c r="J10" s="5">
@@ -2768,23 +3025,23 @@
         <v>8652.92</v>
       </c>
       <c r="L10" s="5">
-        <f>E10+I10*K10</f>
+        <f t="shared" si="2"/>
         <v>100660.51449999999</v>
       </c>
       <c r="M10" s="5">
-        <f>I10+E10/K10</f>
-        <v>11.633126678624095</v>
+        <f t="shared" si="4"/>
+        <v>11.633126678624093</v>
       </c>
       <c r="N10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.0069072171651494</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.90973242916469532</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.106816889104062</v>
       </c>
     </row>
@@ -2802,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5">
-        <f>B11-C11</f>
+        <f t="shared" si="1"/>
         <v>111944.3299</v>
       </c>
       <c r="F11" s="5">
@@ -2815,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="5">
-        <f>F11-G11</f>
+        <f t="shared" si="3"/>
         <v>0.50499999999999989</v>
       </c>
       <c r="J11" s="5">
@@ -2825,22 +3082,22 @@
         <v>8366.6200000000008</v>
       </c>
       <c r="L11" s="5">
-        <f>E11+I11*K11</f>
+        <f t="shared" si="2"/>
         <v>116169.473</v>
       </c>
       <c r="M11" s="5">
-        <f>I11+E11/K11</f>
-        <v>13.884875015239128</v>
+        <f t="shared" si="4"/>
+        <v>13.884875015239126</v>
       </c>
       <c r="N11" s="5">
         <v>1.0099</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.8796320243915261</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1480937164589762</v>
       </c>
     </row>
@@ -2858,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="5">
-        <f>B12-C12</f>
+        <f t="shared" si="1"/>
         <v>81036.414999999994</v>
       </c>
       <c r="F12" s="5">
@@ -2871,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="5">
-        <f>F12-G12</f>
+        <f t="shared" si="3"/>
         <v>4.5049999999999999</v>
       </c>
       <c r="J12" s="5">
@@ -2881,22 +3138,22 @@
         <v>8735.1200000000008</v>
       </c>
       <c r="L12" s="5">
-        <f>E12+I12*K12</f>
+        <f t="shared" si="2"/>
         <v>120388.1306</v>
       </c>
       <c r="M12" s="5">
-        <f>I12+E12/K12</f>
+        <f t="shared" si="4"/>
         <v>13.782080910164943</v>
       </c>
       <c r="N12">
         <v>1.0102</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.91837459916942654</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.0999868690985355</v>
       </c>
     </row>
@@ -2914,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="5">
-        <f>B13-C13</f>
+        <f t="shared" si="1"/>
         <v>81036.414999999994</v>
       </c>
       <c r="F13" s="5">
@@ -2927,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="5">
-        <f>F13-G13</f>
+        <f t="shared" si="3"/>
         <v>4.5049999999999999</v>
       </c>
       <c r="J13" s="5">
@@ -2937,22 +3194,22 @@
         <v>8699.56</v>
       </c>
       <c r="L13" s="5">
-        <f>E13+I13*K13</f>
+        <f t="shared" si="2"/>
         <v>120227.93279999998</v>
       </c>
       <c r="M13" s="5">
-        <f>I13+E13/K13</f>
+        <f t="shared" si="4"/>
         <v>13.820001563297453</v>
       </c>
       <c r="N13">
         <v>1.0087999999999999</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.91463596698733107</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1029524711594609</v>
       </c>
     </row>
@@ -2970,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="5">
-        <f>B14-C14</f>
+        <f t="shared" si="1"/>
         <v>183006.11689999999</v>
       </c>
       <c r="F14" s="5">
@@ -2983,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="5">
-        <f>F14-G14</f>
+        <f t="shared" si="3"/>
         <v>-7.4950000000000001</v>
       </c>
       <c r="J14" s="5">
@@ -2993,22 +3250,22 @@
         <v>8223.7099999999991</v>
       </c>
       <c r="L14" s="5">
-        <f>E14+I14*K14</f>
+        <f t="shared" si="2"/>
         <v>121369.41045</v>
       </c>
       <c r="M14" s="5">
-        <f>I14+E14/K14</f>
-        <v>14.75847402814545</v>
+        <f t="shared" si="4"/>
+        <v>14.758474028145448</v>
       </c>
       <c r="N14" s="5">
         <v>1.0184</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.86460705461809384</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1778761167404981</v>
       </c>
     </row>
@@ -3026,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="5">
-        <f>B15-C15</f>
+        <f t="shared" si="1"/>
         <v>183006.11689999999</v>
       </c>
       <c r="F15" s="5">
@@ -3039,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="5">
-        <f>F15-G15</f>
+        <f t="shared" si="3"/>
         <v>-7.4950000000000001</v>
       </c>
       <c r="J15" s="5">
@@ -3049,22 +3306,22 @@
         <v>8351.36</v>
       </c>
       <c r="L15" s="5">
-        <f>E15+I15*K15</f>
+        <f t="shared" si="2"/>
         <v>120412.67369999998</v>
       </c>
       <c r="M15" s="5">
-        <f>I15+E15/K15</f>
-        <v>14.418331110142535</v>
+        <f t="shared" si="4"/>
+        <v>14.418331110142537</v>
       </c>
       <c r="N15" s="5">
         <v>1.0104</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.87802765073857969</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1507610257490994</v>
       </c>
     </row>
@@ -3082,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="5">
-        <f>B16-C16</f>
+        <f t="shared" si="1"/>
         <v>170391.74969999999</v>
       </c>
       <c r="F16" s="5">
@@ -3095,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="5">
-        <f>F16-G16</f>
+        <f t="shared" si="3"/>
         <v>-5.9950000000000001</v>
       </c>
       <c r="J16" s="5">
@@ -3105,22 +3362,22 @@
         <v>8278.93</v>
       </c>
       <c r="L16" s="5">
-        <f>E16+I16*K16</f>
+        <f t="shared" si="2"/>
         <v>120759.56434999999</v>
       </c>
       <c r="M16" s="5">
-        <f>I16+E16/K16</f>
+        <f t="shared" si="4"/>
         <v>14.586373402118387</v>
       </c>
       <c r="N16" s="5">
         <v>1.0133000000000001</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.87041265836093151</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1641604591414592</v>
       </c>
     </row>
@@ -3138,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="5">
-        <f>B17-C17</f>
+        <f t="shared" si="1"/>
         <v>157961.66630000001</v>
       </c>
       <c r="F17" s="5">
@@ -3151,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="5">
-        <f>F17-G17</f>
+        <f t="shared" si="3"/>
         <v>-4.4950000000000001</v>
       </c>
       <c r="J17" s="5">
@@ -3161,22 +3418,22 @@
         <v>8146.25</v>
       </c>
       <c r="L17" s="5">
-        <f>E17+I17*K17</f>
+        <f t="shared" si="2"/>
         <v>121344.27255000001</v>
       </c>
       <c r="M17" s="5">
-        <f>I17+E17/K17</f>
-        <v>14.895721657204234</v>
+        <f t="shared" si="4"/>
+        <v>14.895721657204236</v>
       </c>
       <c r="N17" s="5">
         <v>1.0182</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.85646322872312464</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1888426331133957</v>
       </c>
     </row>
@@ -3194,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="5">
-        <f>B18-C18</f>
+        <f t="shared" si="1"/>
         <v>158033.94500000001</v>
       </c>
       <c r="F18" s="5">
@@ -3207,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="5">
-        <f>F18-G18</f>
+        <f t="shared" si="3"/>
         <v>-4.4950000000000001</v>
       </c>
       <c r="J18" s="5">
@@ -3217,22 +3474,22 @@
         <v>8114.73</v>
       </c>
       <c r="L18" s="5">
-        <f>E18+I18*K18</f>
+        <f t="shared" si="2"/>
         <v>121558.23365000001</v>
       </c>
       <c r="M18" s="5">
-        <f>I18+E18/K18</f>
-        <v>14.979948026613332</v>
+        <f t="shared" si="4"/>
+        <v>14.979948026613334</v>
       </c>
       <c r="N18" s="5">
         <v>1.02</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.85314934552909627</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1955702777541581</v>
       </c>
     </row>
@@ -3250,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="5">
-        <f>B19-C19</f>
+        <f t="shared" si="1"/>
         <v>158023.3253</v>
       </c>
       <c r="F19" s="5">
@@ -3263,7 +3520,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="I19" s="5">
-        <f>F19-G19</f>
+        <f t="shared" si="3"/>
         <v>-4.4980000000000002</v>
       </c>
       <c r="J19" s="5">
@@ -3276,18 +3533,18 @@
         <v>121010.5007</v>
       </c>
       <c r="M19" s="5">
-        <f>I19+E19/K19</f>
-        <v>14.707557280019444</v>
+        <f t="shared" si="4"/>
+        <v>14.707158568303354</v>
       </c>
       <c r="N19">
         <v>1.0154000000000001</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.8650580875781948</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1737940082644629</v>
       </c>
     </row>
@@ -3305,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="5">
-        <f>B20-C20</f>
+        <f t="shared" si="1"/>
         <v>158023.3253</v>
       </c>
       <c r="F20" s="5">
@@ -3318,7 +3575,7 @@
         <v>1.9E-3</v>
       </c>
       <c r="I20" s="5">
-        <f>F20-G20</f>
+        <f t="shared" si="3"/>
         <v>-4.4980000000000002</v>
       </c>
       <c r="J20" s="5">
@@ -3331,18 +3588,18 @@
         <v>121167.0399</v>
       </c>
       <c r="M20" s="5">
-        <f>I20+E20/K20</f>
-        <v>14.795560113155897</v>
+        <f t="shared" si="4"/>
+        <v>14.793661401604547</v>
       </c>
       <c r="N20" s="5">
         <v>1.0166999999999999</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.86111233769647266</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1806821891783987</v>
       </c>
     </row>
@@ -3360,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="5">
-        <f>B21-C21</f>
+        <f t="shared" si="1"/>
         <v>133005.65479999999</v>
       </c>
       <c r="F21" s="5">
@@ -3373,7 +3630,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="I21" s="5">
-        <f>F21-G21</f>
+        <f t="shared" si="3"/>
         <v>-1.504</v>
       </c>
       <c r="J21" s="5">
@@ -3387,18 +3644,18 @@
         <v>120679.17159999999</v>
       </c>
       <c r="M21" s="5">
-        <f>I21+E21/K21</f>
-        <v>14.724513970570294</v>
+        <f t="shared" si="4"/>
+        <v>14.724513970570293</v>
       </c>
       <c r="N21" s="5">
         <v>1.0123</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.86167271198023443</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.174808005319798</v>
       </c>
     </row>
@@ -3416,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="5">
-        <f>B22-C22</f>
+        <f t="shared" si="1"/>
         <v>145385.84479999999</v>
       </c>
       <c r="F22" s="11">
@@ -3429,7 +3686,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" ref="I22:I34" si="3">F22-G22</f>
+        <f t="shared" ref="I22:I36" si="8">F22-G22</f>
         <v>-3.004</v>
       </c>
       <c r="J22" s="5">
@@ -3442,18 +3699,18 @@
         <v>120248.7447</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" ref="M22:M32" si="4">I22+E22/K22</f>
-        <v>14.407290752554763</v>
+        <f t="shared" si="4"/>
+        <v>14.400892050265325</v>
       </c>
       <c r="N22" s="5">
         <v>1.0089999999999999</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.8778941281606476</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1493413244647661</v>
       </c>
     </row>
@@ -3471,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="5">
-        <f>B23-C23</f>
+        <f t="shared" si="1"/>
         <v>56617.216399999998</v>
       </c>
       <c r="F23" s="11">
@@ -3484,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6482999999999999</v>
       </c>
       <c r="J23" s="5">
@@ -3498,17 +3755,17 @@
       </c>
       <c r="M23" s="5">
         <f t="shared" si="4"/>
-        <v>11.28307043760935</v>
+        <v>14.073902320408841</v>
       </c>
       <c r="N23" s="11">
         <v>1.0077</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.89716763917363196</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1232014575650298</v>
       </c>
     </row>
@@ -3526,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" ref="E24:E27" si="5">B24-C24</f>
+        <f t="shared" ref="E24:E27" si="9">B24-C24</f>
         <v>56617.216399999998</v>
       </c>
       <c r="F24" s="11">
@@ -3539,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5.9756</v>
       </c>
       <c r="J24" s="5">
@@ -3553,17 +3810,17 @@
       </c>
       <c r="M24" s="5">
         <f t="shared" si="4"/>
-        <v>12.659701798846104</v>
+        <v>14.147952866619521</v>
       </c>
       <c r="N24" s="11">
         <v>1.0056</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.89054618093886351</v>
       </c>
       <c r="P24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1291946689837469</v>
       </c>
     </row>
@@ -3581,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>81708.660199999998</v>
       </c>
       <c r="F25" s="11">
@@ -3594,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.4725999999999999</v>
       </c>
       <c r="J25" s="5">
@@ -3608,17 +3865,17 @@
       </c>
       <c r="M25" s="5">
         <f t="shared" si="4"/>
-        <v>14.223397487735225</v>
+        <v>14.223378776541852</v>
       </c>
       <c r="N25" s="11">
         <v>1.0001</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.88100615044945596</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1351793622437107</v>
       </c>
     </row>
@@ -3636,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>94111.744699999996</v>
       </c>
       <c r="F26" s="11">
@@ -3649,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2.9725999999999999</v>
       </c>
       <c r="J26" s="5">
@@ -3663,17 +3920,17 @@
       </c>
       <c r="M26" s="5">
         <f t="shared" si="4"/>
-        <v>14.39567497262931</v>
+        <v>14.395656265399806</v>
       </c>
       <c r="N26" s="11">
         <v>0.99519999999999997</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.86618724701676919</v>
       </c>
       <c r="P26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1489432607413268</v>
       </c>
     </row>
@@ -3691,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>126552.7984</v>
       </c>
       <c r="F27" s="11">
@@ -3704,7 +3961,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-1.0274000000000001</v>
       </c>
       <c r="J27" s="5">
@@ -3718,17 +3975,17 @@
       </c>
       <c r="M27" s="5">
         <f t="shared" si="4"/>
-        <v>14.63821592794595</v>
+        <v>14.635697218996878</v>
       </c>
       <c r="N27" s="11">
         <v>0.99209999999999998</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.84932765599537408</v>
       </c>
       <c r="P27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1681004297891409</v>
       </c>
     </row>
@@ -3746,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" ref="E25:E34" si="6">B28-C28</f>
+        <f t="shared" ref="E28:E36" si="10">B28-C28</f>
         <v>150531.7144</v>
       </c>
       <c r="F28" s="11">
@@ -3759,7 +4016,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-4.0274000000000001</v>
       </c>
       <c r="J28" s="5">
@@ -3773,17 +4030,17 @@
       </c>
       <c r="M28" s="5">
         <f t="shared" si="4"/>
-        <v>15.182605270472212</v>
+        <v>15.177086564634749</v>
       </c>
       <c r="N28" s="11">
         <v>0.99790000000000001</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.82385638437680697</v>
       </c>
       <c r="P28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.2112547998943353</v>
       </c>
     </row>
@@ -3801,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>150531.7144</v>
       </c>
       <c r="F29" s="11">
@@ -3814,7 +4071,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-4.0274000000000001</v>
       </c>
       <c r="J29" s="5">
@@ -3828,17 +4085,17 @@
       </c>
       <c r="M29" s="5">
         <f t="shared" si="4"/>
-        <v>15.667145616302864</v>
+        <v>15.659126910818859</v>
       </c>
       <c r="N29" s="11">
         <v>1.0043</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.80358723650318031</v>
       </c>
       <c r="P29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.2497709699449977</v>
       </c>
     </row>
@@ -3856,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>139166.6146</v>
       </c>
       <c r="F30" s="11">
@@ -3870,7 +4127,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-2.5304000000000002</v>
       </c>
       <c r="J30" s="5">
@@ -3884,17 +4141,17 @@
       </c>
       <c r="M30" s="5">
         <f t="shared" si="4"/>
-        <v>16.341722172062287</v>
+        <v>16.333697463721439</v>
       </c>
       <c r="N30" s="11">
         <v>1.0106999999999999</v>
       </c>
       <c r="O30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.77529201492929611</v>
       </c>
       <c r="P30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.303637830053199</v>
       </c>
     </row>
@@ -3912,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>150148.5772</v>
       </c>
       <c r="F31" s="11">
@@ -3925,7 +4182,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-3.9994000000000001</v>
       </c>
       <c r="J31" s="5">
@@ -3939,18 +4196,18 @@
       </c>
       <c r="M31" s="5">
         <f t="shared" si="4"/>
-        <v>16.000863369267101</v>
+        <v>15.99183865635319</v>
       </c>
       <c r="N31" s="11">
         <v>1.0074000000000001</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.78928980707564522</v>
       </c>
-      <c r="P31" s="2" t="e">
-        <f>#REF!*$K$2/K31</f>
-        <v>#REF!</v>
+      <c r="P31" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2763372730384839</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
@@ -3967,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>146334.9356</v>
       </c>
       <c r="F32" s="11">
@@ -3980,7 +4237,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-3.4998999999999998</v>
       </c>
       <c r="J32" s="5">
@@ -4001,72 +4258,440 @@
         <v>1.0097</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.77875203700783269</v>
       </c>
       <c r="P32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.2965616165570872</v>
       </c>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C33" s="5">
-        <v>0</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
+    <row r="33" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="11">
+        <v>7440.61</v>
+      </c>
+      <c r="L33" s="11">
+        <v>120211.4843</v>
+      </c>
+      <c r="M33" s="5">
+        <f t="shared" si="4"/>
+        <v>16.156132938025245</v>
+      </c>
+      <c r="N33" s="11">
+        <v>1.0086999999999999</v>
+      </c>
+      <c r="O33" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="5">
-        <v>0</v>
-      </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="P33" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C34" s="5">
-        <v>0</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
+        <v>0.7822751406192503</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2894440173587918</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="10">
+        <v>43246.750428240739</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="11">
+        <v>7544.56</v>
+      </c>
+      <c r="L34" s="5">
+        <v>119713.8509</v>
+      </c>
+      <c r="M34" s="5">
+        <f t="shared" si="4"/>
+        <v>15.867572250734304</v>
+      </c>
+      <c r="N34" s="11">
+        <v>1.0044999999999999</v>
+      </c>
+      <c r="O34" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.15">
+        <v>0.79320401619092684</v>
+      </c>
+      <c r="P34" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2663828970808102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="10">
+        <v>43247.250358796293</v>
+      </c>
       <c r="C35" s="5">
         <v>0</v>
       </c>
       <c r="D35" s="5">
         <v>0</v>
       </c>
+      <c r="E35" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="J35" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="K35" s="11">
+        <v>7460.14</v>
+      </c>
+      <c r="L35" s="11">
+        <v>119880.39</v>
+      </c>
+      <c r="M35" s="5">
+        <f t="shared" si="4"/>
+        <v>16.069455801097565</v>
+      </c>
+      <c r="N35" s="11">
+        <v>1.0059</v>
+      </c>
+      <c r="O35" s="5">
+        <f t="shared" si="6"/>
+        <v>0.78432844451453509</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2824984316648214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="10">
+        <v>43247.7503125</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="J36" s="5">
         <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>7318.12</v>
+      </c>
+      <c r="L36" s="11">
+        <v>120144.95</v>
+      </c>
+      <c r="M36" s="5">
+        <f t="shared" si="4"/>
+        <v>16.417461041906936</v>
+      </c>
+      <c r="N36" s="11">
+        <v>1.0081</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" si="6"/>
+        <v>0.76939704568154343</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="7"/>
+        <v>1.3102467778609805</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="10">
+        <v>43248.250243055554</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <v>7331.51</v>
+      </c>
+      <c r="L37" s="11">
+        <v>120114.23149999999</v>
+      </c>
+      <c r="M37" s="5">
+        <f t="shared" si="4"/>
+        <v>16.383286867234716</v>
+      </c>
+      <c r="N37" s="11">
+        <v>1.0079</v>
+      </c>
+      <c r="O37" s="5">
+        <f t="shared" si="6"/>
+        <v>0.77080481522367661</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="7"/>
+        <v>1.3075943223155939</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="10">
+        <v>43248.750185185185</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>7206.45</v>
+      </c>
+      <c r="L38" s="11">
+        <v>120345.3495</v>
+      </c>
+      <c r="M38" s="5">
+        <f t="shared" si="4"/>
+        <v>16.699671752388486</v>
+      </c>
+      <c r="N38" s="11">
+        <v>1.0098</v>
+      </c>
+      <c r="O38" s="5">
+        <f t="shared" si="6"/>
+        <v>0.7576565210534616</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="7"/>
+        <v>1.3327939137855671</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="10">
+        <v>43249.250162037039</v>
+      </c>
+      <c r="K39" s="11">
+        <v>7154.5</v>
+      </c>
+      <c r="L39" s="11">
+        <v>120499.33620000001</v>
+      </c>
+      <c r="M39" s="5">
+        <f t="shared" si="4"/>
+        <v>16.842453868194845</v>
+      </c>
+      <c r="N39" s="11">
+        <v>1.0111000000000001</v>
+      </c>
+      <c r="O39" s="5">
+        <f t="shared" si="6"/>
+        <v>0.75219471166482677</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="7"/>
+        <v>1.344199825284786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="10">
+        <v>43249.750104166669</v>
+      </c>
+      <c r="K40" s="11">
+        <v>7133.97</v>
+      </c>
+      <c r="L40" s="11">
+        <v>120529.7608</v>
+      </c>
+      <c r="M40" s="5">
+        <f t="shared" si="4"/>
+        <v>16.895187504292842</v>
+      </c>
+      <c r="N40" s="11">
+        <v>1.0114000000000001</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" si="6"/>
+        <v>0.75003627188140676</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="7"/>
+        <v>1.3484681180324563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="10">
+        <v>43250.250393518516</v>
+      </c>
+      <c r="K41" s="11">
+        <v>7496.21</v>
+      </c>
+      <c r="L41" s="11">
+        <v>119899.34329999999</v>
+      </c>
+      <c r="M41" s="5">
+        <f t="shared" si="4"/>
+        <v>15.994661742400492</v>
+      </c>
+      <c r="N41" s="11">
+        <v>1.0061</v>
+      </c>
+      <c r="O41" s="5">
+        <f t="shared" si="6"/>
+        <v>0.78812069599957946</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2765811189921308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="10">
+        <v>43250.750277777777</v>
+      </c>
+      <c r="K42" s="11">
+        <v>7495.53</v>
+      </c>
+      <c r="L42" s="11">
+        <v>119877.5577</v>
+      </c>
+      <c r="M42" s="5">
+        <f t="shared" si="4"/>
+        <v>15.993206310961334</v>
+      </c>
+      <c r="N42" s="11">
+        <v>1.0059</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" si="6"/>
+        <v>0.78804920359564734</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2764431401115066</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="10">
+        <v>43251.250150462962</v>
+      </c>
+      <c r="K43" s="11">
+        <v>7343.8</v>
+      </c>
+      <c r="L43" s="11">
+        <v>120052.8976</v>
+      </c>
+      <c r="M43" s="5">
+        <f t="shared" si="4"/>
+        <v>16.347517307116206</v>
+      </c>
+      <c r="N43" s="11">
+        <v>1.0074000000000001</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="6"/>
+        <v>0.77209693528886092</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" si="7"/>
+        <v>1.3047584493041751</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="10">
+        <v>43251.750011574077</v>
+      </c>
+      <c r="K44" s="11">
+        <v>7532.87</v>
+      </c>
+      <c r="L44" s="11">
+        <v>119480.42329999999</v>
+      </c>
+      <c r="M44" s="5">
+        <f t="shared" si="4"/>
+        <v>15.861208715934298</v>
+      </c>
+      <c r="N44" s="11">
+        <v>1.0025999999999999</v>
+      </c>
+      <c r="O44" s="5">
+        <f t="shared" si="6"/>
+        <v>0.79197497765862379</v>
+      </c>
+      <c r="P44" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2659490871341204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="10">
+        <v>43252.250474537039</v>
+      </c>
+      <c r="K45" s="11">
+        <v>7547.64</v>
+      </c>
+      <c r="L45" s="11">
+        <v>119431.78660000001</v>
+      </c>
+      <c r="M45" s="5">
+        <f t="shared" si="4"/>
+        <v>15.823725906376033</v>
+      </c>
+      <c r="N45" s="11">
+        <v>1.0021</v>
+      </c>
+      <c r="O45" s="5">
+        <f t="shared" si="6"/>
+        <v>0.79352783472638388</v>
+      </c>
+      <c r="P45" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2628416498402149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="10">
+        <v>43252.750335648147</v>
+      </c>
+      <c r="K46" s="11">
+        <v>7525.39</v>
+      </c>
+      <c r="L46" s="11">
+        <v>119476.80439999999</v>
+      </c>
+      <c r="M46" s="5">
+        <f t="shared" si="4"/>
+        <v>15.876493364463501</v>
+      </c>
+      <c r="N46" s="11">
+        <v>1.0024999999999999</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" si="6"/>
+        <v>0.79118856121537096</v>
+      </c>
+      <c r="P46" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2670810084261412</v>
       </c>
     </row>
   </sheetData>
